--- a/data/hotels_by_city/Dallas/Dallas_shard_767.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_767.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2355 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r587049947-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>109099</t>
+  </si>
+  <si>
+    <t>587049947</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel in the Area</t>
+  </si>
+  <si>
+    <t>We are very pleased with the hotel and their services. We will be back soon. Manager is the best in business. Room was very nice and clean with fridge and microwave in the room. Love the new bathroom style with accent wall.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r581270984-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>581270984</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Good value option</t>
+  </si>
+  <si>
+    <t>This was our Dallas motel on our two weeks road trip vacation - and it was pretty good motel option. The rooms were clean with good wifi, TV, Microwave and fridge. Helpful staff - who really care about their guests and the property. Not too much staff within walking distance - but just mile or two away from some good restaurant, shopping mall etc. We went downtown one day and drove to the MTR park and rise - about three miles away - which was breeze. Did all the JFK thing.....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This was our Dallas motel on our two weeks road trip vacation - and it was pretty good motel option. The rooms were clean with good wifi, TV, Microwave and fridge. Helpful staff - who really care about their guests and the property. Not too much staff within walking distance - but just mile or two away from some good restaurant, shopping mall etc. We went downtown one day and drove to the MTR park and rise - about three miles away - which was breeze. Did all the JFK thing.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r580921893-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>580921893</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Goo</t>
+  </si>
+  <si>
+    <t>The property was convenient to my business location.  The room was clean and updated.  I would have liked to have had a coffee maker in my room but there was coffee in the lobby.  Surrounding property needs to be cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The property was convenient to my business location.  The room was clean and updated.  I would have liked to have had a coffee maker in my room but there was coffee in the lobby.  Surrounding property needs to be cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r568005147-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>568005147</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Booking issue</t>
+  </si>
+  <si>
+    <t>There was a online booking issue, which I needed to check-in late rather than the next day. I was offered a room at additional rate that I didn’t want to pay, but I agreed to it. The tv didn’t work in the room quickly moved to another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>There was a online booking issue, which I needed to check-in late rather than the next day. I was offered a room at additional rate that I didn’t want to pay, but I agreed to it. The tv didn’t work in the room quickly moved to another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r565958592-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>565958592</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>I paid for 2 nights, but tried to check out 5 minutes after checking in due to family emergency. Still had to pay for 2 nights at over $100. Will never stay here again!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r561305325-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>561305325</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Travelodge</t>
+  </si>
+  <si>
+    <t>Never changed my sheets. 5 night stay had additional 10%off and would not apply to stay may have vacuumed 3 times MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Never changed my sheets. 5 night stay had additional 10%off and would not apply to stay may have vacuumed 3 times More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r546290913-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>546290913</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Should be no stars. Awful, bed even stank.</t>
+  </si>
+  <si>
+    <t>Don't go to this motel. absolutely everything was bad,even the manager that came on in the morning was rude and not helpful at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Don't go to this motel. absolutely everything was bad,even the manager that came on in the morning was rude and not helpful at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r543591977-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>543591977</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Good Stay for Decent Price</t>
+  </si>
+  <si>
+    <t>Overall it was a good stay! You can tell it's a little dated but it was clean, which is our main concern. Breakfast is just cereal, bread next to toaster, small packaged honey buns &amp; instant oatmeal. Front desk was very nice. Beds &amp; pillows were comfortable &amp; tv worked fine. Bathroom is tiny. There is noise from the road, so if you are a light sleeper, bring earplugs. Our room faced the pool. Even though it's closed, they were cleaning it &amp; doing yard work, so the property was kept up nicely. Had a few rose bushes with big beautiful roses! No coffee maker in room, but they had coffee at front desk. Fridge &amp; microwave in room. Definitely would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Overall it was a good stay! You can tell it's a little dated but it was clean, which is our main concern. Breakfast is just cereal, bread next to toaster, small packaged honey buns &amp; instant oatmeal. Front desk was very nice. Beds &amp; pillows were comfortable &amp; tv worked fine. Bathroom is tiny. There is noise from the road, so if you are a light sleeper, bring earplugs. Our room faced the pool. Even though it's closed, they were cleaning it &amp; doing yard work, so the property was kept up nicely. Had a few rose bushes with big beautiful roses! No coffee maker in room, but they had coffee at front desk. Fridge &amp; microwave in room. Definitely would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r541167686-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>541167686</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>NRH Travellodge</t>
+  </si>
+  <si>
+    <t>Older, however clean room. Bed comfortable. Near Interstate, but didn't notice excessive road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Older, however clean room. Bed comfortable. Near Interstate, but didn't notice excessive road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r537282723-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>537282723</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Staff friendly easy check in cleans rooms. Only complaints are pillows could have been better and towels also had stains on them.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Staff friendly easy check in cleans rooms. Only complaints are pillows could have been better and towels also had stains on them.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r535972447-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>535972447</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r535782052-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>535782052</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I was extremely happy with my room, it was clean and looked like had newer carpet and bathroom. Next time I am in town I will stay here again..MoreShow less</t>
+  </si>
+  <si>
+    <t>I was extremely happy with my room, it was clean and looked like had newer carpet and bathroom. Next time I am in town I will stay here again..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r532077674-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>532077674</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Extremely disappointed</t>
+  </si>
+  <si>
+    <t>The check-in time is at three but I was given the option to check-in earlier when I was booking. I drove a long way and my event started at 4 p.m. which left my family and I no time to get ready. The room was ok. The breakfast area was filthy and the food was of poor quality.  I would never stay here again. The pictures that are on-line does not reflect the appearance of the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>The check-in time is at three but I was given the option to check-in earlier when I was booking. I drove a long way and my event started at 4 p.m. which left my family and I no time to get ready. The room was ok. The breakfast area was filthy and the food was of poor quality.  I would never stay here again. The pictures that are on-line does not reflect the appearance of the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r531424566-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>531424566</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay as usual</t>
+  </si>
+  <si>
+    <t>I always enjoy my stay at the Travelodge with my children we always feel very safe the rooms are very clean the staff is very friendly housekeeping is always there and so is maintenance very nice hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I always enjoy my stay at the Travelodge with my children we always feel very safe the rooms are very clean the staff is very friendly housekeeping is always there and so is maintenance very nice hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r531379164-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>531379164</t>
+  </si>
+  <si>
+    <t>Bad place to stay</t>
+  </si>
+  <si>
+    <t>Welcome was ok but then it went downhillUnable to use laundry after waiting five hoursPillows smelt badBreakfast was really basic and not worth going in for itService by staff was not acceptable at all bad attitudeNot a clean siteMoreShow less</t>
+  </si>
+  <si>
+    <t>Welcome was ok but then it went downhillUnable to use laundry after waiting five hoursPillows smelt badBreakfast was really basic and not worth going in for itService by staff was not acceptable at all bad attitudeNot a clean siteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r529272681-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>529272681</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Like hell</t>
+  </si>
+  <si>
+    <t>This is the wrost experience ever, dirty, smell, the sheet has cigar holes, burn marks, how can they rent this kind of room for money and who the heck rate this 5 stars! MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>This is the wrost experience ever, dirty, smell, the sheet has cigar holes, burn marks, how can they rent this kind of room for money and who the heck rate this 5 stars! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r528698287-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>528698287</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Poor customer service. Ran out of towels and couldn't replace the two that I was provided once the towels were used. Took them all day just to give me ONE extra pillow. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Poor customer service. Ran out of towels and couldn't replace the two that I was provided once the towels were used. Took them all day just to give me ONE extra pillow. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r525875449-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>525875449</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>unbleivable</t>
+  </si>
+  <si>
+    <t>my stay was not good the sheets had burns in them and the carpet was dirty and the coffee maker looked like it had not been cleaned in years my stay was terrible I will never stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>my stay was not good the sheets had burns in them and the carpet was dirty and the coffee maker looked like it had not been cleaned in years my stay was terrible I will never stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r517107177-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>517107177</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Lovely place</t>
+  </si>
+  <si>
+    <t>This property was a great stay! The rooms are spacious, clean and homey. The housekeeping and management make sure your stay is a pleasant experience away from home. The bathroom had all brand new fixtures, the air conditioning unit makes it feel heavenly inside the room; drowning out the Texas heat! They provide a flat screen, mini fridge, hairdryer and a microwave! You have the essentials you need without the eye popping price tag.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>This property was a great stay! The rooms are spacious, clean and homey. The housekeeping and management make sure your stay is a pleasant experience away from home. The bathroom had all brand new fixtures, the air conditioning unit makes it feel heavenly inside the room; drowning out the Texas heat! They provide a flat screen, mini fridge, hairdryer and a microwave! You have the essentials you need without the eye popping price tag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r514362772-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>514362772</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>not what I paid for.</t>
+  </si>
+  <si>
+    <t>The kind of  money they charged the rooms should of been better. Don't get fooled by the complimentary breakfast it was lame convenience store snacks. Hope this helps someone who expects more for their money.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>The kind of  money they charged the rooms should of been better. Don't get fooled by the complimentary breakfast it was lame convenience store snacks. Hope this helps someone who expects more for their money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r513005066-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>513005066</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>The hotel apereamce is great cleanliness A vreat place to...</t>
+  </si>
+  <si>
+    <t>The hotel apereamce is great cleanliness A vreat place to stay acessible to major restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel apereamce is great cleanliness A vreat place to stay acessible to major restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r508576739-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>508576739</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Happy Weekend!</t>
+  </si>
+  <si>
+    <t>Very pleasant stay at this location. I would stay there again. Desk manager was very helpful; bed was comfortable; and great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleasant stay at this location. I would stay there again. Desk manager was very helpful; bed was comfortable; and great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r506192749-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>506192749</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Dirty Experience</t>
+  </si>
+  <si>
+    <t>While our check in experience was great and the lady at the desk was nice and helpful the rest of the experience lacked.  Our room smelled of cigarette smoke (non smoking room), our towels had dark stains on them and the shower curtain was covered in mold.  The continental breakfast consisted of individually wrapped honey buns in a display case.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>While our check in experience was great and the lady at the desk was nice and helpful the rest of the experience lacked.  Our room smelled of cigarette smoke (non smoking room), our towels had dark stains on them and the shower curtain was covered in mold.  The continental breakfast consisted of individually wrapped honey buns in a display case.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r504934421-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>504934421</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Breakfast was nothing, though room just sufficient</t>
+  </si>
+  <si>
+    <t>Cereal and a box of a danish, that's the "continental" breakfast offered with room, ridiculous.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cereal and a box of a danish, that's the "continental" breakfast offered with room, ridiculous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r500711442-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>500711442</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Will never return!</t>
+  </si>
+  <si>
+    <t>My guest had a motorcycle and asked to park it under a covered area becuase there was severe storms and flooring. The attendant and the manager threatened to call the police, have the bike towed, remove us from the property  IN THE MIDDLE OF A STORM. We were not given any options of where the bike could be moved and were told to suck it up and park it in a regular spot. They said they were not concerend for any damage that might occur to the bike. This the most rude, unhelpfull, and frightening experience I have ever had a hotel. I will never return to this property. When I told them I would call and complain to corporate, the manger said go ahead becausr we are independently owned and operated...we have no corporate. Disappointed is not the word!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>My guest had a motorcycle and asked to park it under a covered area becuase there was severe storms and flooring. The attendant and the manager threatened to call the police, have the bike towed, remove us from the property  IN THE MIDDLE OF A STORM. We were not given any options of where the bike could be moved and were told to suck it up and park it in a regular spot. They said they were not concerend for any damage that might occur to the bike. This the most rude, unhelpfull, and frightening experience I have ever had a hotel. I will never return to this property. When I told them I would call and complain to corporate, the manger said go ahead becausr we are independently owned and operated...we have no corporate. Disappointed is not the word!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r496544215-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>496544215</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Too much fragrance in room</t>
+  </si>
+  <si>
+    <t>The first room we were offered smelled so strongly of perfumed air freshener that it gave us headaches. The second room smelled faintly like cat urine, but we were able to cover it up with a bathroom air freshener.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Guest Relations Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>The first room we were offered smelled so strongly of perfumed air freshener that it gave us headaches. The second room smelled faintly like cat urine, but we were able to cover it up with a bathroom air freshener.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r495514123-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>495514123</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Good value for the dollar!</t>
+  </si>
+  <si>
+    <t>This property always seems maintained. My room was clean, and the bathroom, shower and A/C all worked fine. I do wish, though, that house staff, knowing that I would be checking into the room later that day, had turn the A/C unit on and had the room reasonably cool for me on my arrival. The room was "hot" when I entered. It took a period for the A/C unit to cool the room to the degree level where I was comfortable. I welcome the hotel staff serving raisen bran cereal for those of us who wish to avoid sweets in the mornings or artery clogging foods. Breakfast is sparse as there was no yogurts, no boil eggs, and the orange juice was a little "weak," or more like orange drink. Overall, this is a well run operation, administratively, operationally and management wise, too. I stay here every time I come to North Richland Hills. MoreShow less</t>
+  </si>
+  <si>
+    <t>This property always seems maintained. My room was clean, and the bathroom, shower and A/C all worked fine. I do wish, though, that house staff, knowing that I would be checking into the room later that day, had turn the A/C unit on and had the room reasonably cool for me on my arrival. The room was "hot" when I entered. It took a period for the A/C unit to cool the room to the degree level where I was comfortable. I welcome the hotel staff serving raisen bran cereal for those of us who wish to avoid sweets in the mornings or artery clogging foods. Breakfast is sparse as there was no yogurts, no boil eggs, and the orange juice was a little "weak," or more like orange drink. Overall, this is a well run operation, administratively, operationally and management wise, too. I stay here every time I come to North Richland Hills. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r494391659-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>494391659</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>I didnt like the appearance of the room. When I arrived the room wasnt clean. And there was blood on the bathroom wall. Wasn't satisfied at all. Thats why I checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I didnt like the appearance of the room. When I arrived the room wasnt clean. And there was blood on the bathroom wall. Wasn't satisfied at all. Thats why I checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r491042181-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>491042181</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Clean room, nice stay</t>
+  </si>
+  <si>
+    <t>Very nice staff and newly remodeled room and property. Good location easy access to freeway. Breakfast could use some improvement. Good English Pub right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Very nice staff and newly remodeled room and property. Good location easy access to freeway. Breakfast could use some improvement. Good English Pub right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r485483301-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>485483301</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Great service needs a but more up to date appearance for value of the room</t>
+  </si>
+  <si>
+    <t>Rooms Needs to be upgraded to meet the the value of the price to meet competition out there. But overall it was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms Needs to be upgraded to meet the the value of the price to meet competition out there. But overall it was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r482471781-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>482471781</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Dirty!</t>
+  </si>
+  <si>
+    <t>Linens were stained and comforter had mold stains on it. We didn't have hangers in the closet or a iron to press our clothes. The floors were so dirty that after a shower and walking barefoot your feet will be dirty from the carpet! aweful, don't stay here!!! Continental breakfast is 2 kinds of cereal, oatmeal, toast and bananas coffee and juice. Pool is not heated and wasn't open on the day we got there. No smoking in the room but there were people smoking right outside on the balcony and it was coming into our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Linens were stained and comforter had mold stains on it. We didn't have hangers in the closet or a iron to press our clothes. The floors were so dirty that after a shower and walking barefoot your feet will be dirty from the carpet! aweful, don't stay here!!! Continental breakfast is 2 kinds of cereal, oatmeal, toast and bananas coffee and juice. Pool is not heated and wasn't open on the day we got there. No smoking in the room but there were people smoking right outside on the balcony and it was coming into our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r482420649-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>482420649</t>
+  </si>
+  <si>
+    <t>1 STAR MORE LIKE 0 STARS</t>
+  </si>
+  <si>
+    <t>I got checked in, and the whole time the front desk woman's kid is screaming at the top of his lungs. I go to my room and the bed wasn't made and there were towels all over the floor. The room hadn't even been cleaned yet. MoreShow less</t>
+  </si>
+  <si>
+    <t>I got checked in, and the whole time the front desk woman's kid is screaming at the top of his lungs. I go to my room and the bed wasn't made and there were towels all over the floor. The room hadn't even been cleaned yet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r477728182-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>477728182</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r470998106-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>470998106</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Rudely unwelomed</t>
+  </si>
+  <si>
+    <t>They should just shut down. Or plz take them off your site. They don't honor, or care. And its your problem. Grandsons said: best western from know on Mammie... MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>They should just shut down. Or plz take them off your site. They don't honor, or care. And its your problem. Grandsons said: best western from know on Mammie... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r469214945-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>469214945</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very clean, staff is nice.. my only complaint is something they can't really control, the people up stairs had very heavy feet! Also they do have some construction going on.. when I stayed there they were working on the room next door and they weren't very loud. I'd definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, staff is nice.. my only complaint is something they can't really control, the people up stairs had very heavy feet! Also they do have some construction going on.. when I stayed there they were working on the room next door and they weren't very loud. I'd definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r466094702-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>466094702</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Dirty.</t>
+  </si>
+  <si>
+    <t>Room was not particularly clean, paint was peeling off the wall, all the interior lights were those high efficiency but very bright blue lighting kind of hurts the eyes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was not particularly clean, paint was peeling off the wall, all the interior lights were those high efficiency but very bright blue lighting kind of hurts the eyes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r464313748-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>464313748</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>The clerk was very friendly and helpful.The rooms are clean and affordable. I will always stay here and let my family see room they liked it also and will be staying very soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The clerk was very friendly and helpful.The rooms are clean and affordable. I will always stay here and let my family see room they liked it also and will be staying very soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r464070931-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>464070931</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Always pleasant</t>
+  </si>
+  <si>
+    <t>The staff at travel Lodge in North Ocean Hills is excellent from the cleaning stuff to the maintenance man to the owners to just the people that work the counter on a daily basis during the day and the evening I've been there both times they're always awesome to me they always treat me like I'm their family and that's very important and that's what keeps me coming back and anything I asked for they are going to make sure I get it thank you so much travel lodge for being so good to me MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff at travel Lodge in North Ocean Hills is excellent from the cleaning stuff to the maintenance man to the owners to just the people that work the counter on a daily basis during the day and the evening I've been there both times they're always awesome to me they always treat me like I'm their family and that's very important and that's what keeps me coming back and anything I asked for they are going to make sure I get it thank you so much travel lodge for being so good to me More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r463159310-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>463159310</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>traveling dale 7</t>
+  </si>
+  <si>
+    <t>it an't&amp;  the Ritz, but quiet, comfortable ,clean , &amp; staff VERY friendly, and helpful , I stay there when i'm In that part of Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>it an't&amp;  the Ritz, but quiet, comfortable ,clean , &amp; staff VERY friendly, and helpful , I stay there when i'm In that part of Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r456734573-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>456734573</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r455052356-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>455052356</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Traveling with Pets</t>
+  </si>
+  <si>
+    <t>We have stayed 6 total nights at this hotel between Oct/16 and Jan17. Each time the room has been very clean, the staff very kind and helpful, and the beds very comfortable. Our dogs loved it as well! The only thing I might like would be enough to towels for 2 people with out having to ask. Other than that..this is a place I like to stay as it is convenient room the entire metroplex of DFW area! MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed 6 total nights at this hotel between Oct/16 and Jan17. Each time the room has been very clean, the staff very kind and helpful, and the beds very comfortable. Our dogs loved it as well! The only thing I might like would be enough to towels for 2 people with out having to ask. Other than that..this is a place I like to stay as it is convenient room the entire metroplex of DFW area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r454065897-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>454065897</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>There was a cigarette burn on the sheet, non smoking room...</t>
+  </si>
+  <si>
+    <t>There was a cigarette burn on the sheet, non smoking room, and the bathroom was not as big as in the picture online.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>There was a cigarette burn on the sheet, non smoking room, and the bathroom was not as big as in the picture online.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r450289242-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>450289242</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay with Travelodge</t>
+  </si>
+  <si>
+    <t>Travelodge is awesome hotel that has all the essential that you would need. I like it the whole staff is awesome.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Travelodge is awesome hotel that has all the essential that you would need. I like it the whole staff is awesome.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r448076781-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>448076781</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys Game.</t>
+  </si>
+  <si>
+    <t>Friendly and good service from the owner/front desk. Very clean and updated motel.  Glad we booked it here and we will stay here again!  Breakfast just cold cereal, juice, coffee, and fruit.  I really would have loved a waffle maker here, but excellent motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Friendly and good service from the owner/front desk. Very clean and updated motel.  Glad we booked it here and we will stay here again!  Breakfast just cold cereal, juice, coffee, and fruit.  I really would have loved a waffle maker here, but excellent motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r446969202-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>446969202</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>travelodge north richland (dallas/ft.worth)</t>
+  </si>
+  <si>
+    <t>Very friendly, courteous and helpful staff. Competes well with Motel 6 types chains. Very clean rooms but showing their age. Per the management, the entire hotel is being renovated and pictures of renovations will make this a very nice place to stay for the price. Complimentary breakfast very rudimentary with fruit and basic cereal and milk. No waffles or pastries.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Very friendly, courteous and helpful staff. Competes well with Motel 6 types chains. Very clean rooms but showing their age. Per the management, the entire hotel is being renovated and pictures of renovations will make this a very nice place to stay for the price. Complimentary breakfast very rudimentary with fruit and basic cereal and milk. No waffles or pastries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r444031972-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>444031972</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Our NAGA Trip</t>
+  </si>
+  <si>
+    <t>Awesome stay &amp; great location. Shopping, restuarants &amp; Nytex Sport Facility. We stay every year.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded December 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2016</t>
+  </si>
+  <si>
+    <t>Awesome stay &amp; great location. Shopping, restuarants &amp; Nytex Sport Facility. We stay every year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r443168768-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>443168768</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r442404063-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>442404063</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Raining inside or out?</t>
+  </si>
+  <si>
+    <t>I woke up to Potter patter puddles in my room,  it rained inside my room as much as it was outside...  and I was downstairs.  Breakfast was a joke.No apologies for the rain, no mention of refund.  I will not stay or recommend this hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I woke up to Potter patter puddles in my room,  it rained inside my room as much as it was outside...  and I was downstairs.  Breakfast was a joke.No apologies for the rain, no mention of refund.  I will not stay or recommend this hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r439948271-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>439948271</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>"Excellent Value for the Dollar"</t>
+  </si>
+  <si>
+    <t>Management at Travelodge North Richland Hills/DFW continue to take progressive steps to modernize and to enhance the property through renovation and continued quality maintenance. This is a most impressive hotel to stay for the price. It truly is predicated on “value for the dollar.” The owners are putting money to upgrade the property even beyond the level called for by the franchisee. I always stay here when in the area. The rooms are clean rooms, modern and nicely furnished for the scale of hotel where you are staying. Management is attentive to your needs. If you need a good place to sleep, hot shower, and then be on your way then this is the place to stay. The breakfast is the standard minimal continental breakfast one finds at this chain of hotels. I have had more elaborate breakfasts, higher quality of juices, etc. within the chain, though. Management has not placed a commensurate level of improvements in the food offering as they have placed in property upgrades and property enhancements. In summary, this is an excellent property for the price paid in this geographic area. Simply too good to believe. I recommend the hotel highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Management at Travelodge North Richland Hills/DFW continue to take progressive steps to modernize and to enhance the property through renovation and continued quality maintenance. This is a most impressive hotel to stay for the price. It truly is predicated on “value for the dollar.” The owners are putting money to upgrade the property even beyond the level called for by the franchisee. I always stay here when in the area. The rooms are clean rooms, modern and nicely furnished for the scale of hotel where you are staying. Management is attentive to your needs. If you need a good place to sleep, hot shower, and then be on your way then this is the place to stay. The breakfast is the standard minimal continental breakfast one finds at this chain of hotels. I have had more elaborate breakfasts, higher quality of juices, etc. within the chain, though. Management has not placed a commensurate level of improvements in the food offering as they have placed in property upgrades and property enhancements. In summary, this is an excellent property for the price paid in this geographic area. Simply too good to believe. I recommend the hotel highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r439884375-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>439884375</t>
+  </si>
+  <si>
+    <t>same as before, home away from home, staff was friendly, cortious, &amp; the hotel was clean &amp; no surprises, MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>same as before, home away from home, staff was friendly, cortious, &amp; the hotel was clean &amp; no surprises, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r439322475-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>439322475</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>We have stayed here two different times now, the staff has always been nice and helpful, the rooms are clean (it is a older hotel). Also it is located close to where we need to be and they allow dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here two different times now, the staff has always been nice and helpful, the rooms are clean (it is a older hotel). Also it is located close to where we need to be and they allow dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r434434548-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>434434548</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Don't stay unless everyone is booked</t>
+  </si>
+  <si>
+    <t>Called front desk for extra pillows and the girl said "housekeeping has already gone home so They will bring them tomorrow." Then there was a $10 charge separate on my bill which was never explained to me. I only knew because of my statement. Breakfast is a joke. Orange juice was watered down. There was only cheap individually wrapped honey buns, white bread, oatmeal and dry cereal as breakfast choicesMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Called front desk for extra pillows and the girl said "housekeeping has already gone home so They will bring them tomorrow." Then there was a $10 charge separate on my bill which was never explained to me. I only knew because of my statement. Breakfast is a joke. Orange juice was watered down. There was only cheap individually wrapped honey buns, white bread, oatmeal and dry cereal as breakfast choicesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r433648800-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>433648800</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Great Staff / Non-Wyndham Rooms</t>
+  </si>
+  <si>
+    <t>The staff at this location is great, and they really help to create a positive experience.  However, the rooms need some bug spray, and also need to be updated.  I deliberately select Wyndham for the quality and comfort of room and the bed.  The bed was hard and uncomfortable.  It was not comparable to other Wyndham facilities I have stayed at.  The room itself just needs a fresh coat of paint, but the beds have to go.  The floor may have been softer. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Desk at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this location is great, and they really help to create a positive experience.  However, the rooms need some bug spray, and also need to be updated.  I deliberately select Wyndham for the quality and comfort of room and the bed.  The bed was hard and uncomfortable.  It was not comparable to other Wyndham facilities I have stayed at.  The room itself just needs a fresh coat of paint, but the beds have to go.  The floor may have been softer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r431868754-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>431868754</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r429995239-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>429995239</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Nice place to stay however we only needed to stay for 6 hours during the day and had to pay for the whole night which I do not agree with.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay however we only needed to stay for 6 hours during the day and had to pay for the whole night which I do not agree with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r428927490-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>428927490</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Best Staff</t>
+  </si>
+  <si>
+    <t>Mike that was working the front desk, was very helpful and friendly. He knows what type of room I like to be in and lets the staff know as well. He does a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike that was working the front desk, was very helpful and friendly. He knows what type of room I like to be in and lets the staff know as well. He does a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r425186481-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>425186481</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>My Awesome Stay at Travelodge!!!!</t>
+  </si>
+  <si>
+    <t>The Manager and Staff of Travelodge in North Richland Hills is Awesome. He helped me book my stay for my Family. The breakfast is Awesome. The Housekeepers were awesome everything was clean everywhere they need a raise. Thanks I will recommend this Travelodge to others. May God Bless you.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Manager and Staff of Travelodge in North Richland Hills is Awesome. He helped me book my stay for my Family. The breakfast is Awesome. The Housekeepers were awesome everything was clean everywhere they need a raise. Thanks I will recommend this Travelodge to others. May God Bless you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r418802059-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>418802059</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>The hotel was very cheap, but also dirty. My room was stained with stale cigarette smell, and had burn holes in the sheets as well as strange stains on the chairs, floor and inside the dresser drawers. Also, the TVs do not support HDMI.This hotel is right next to a busy highway and so it was easy to wake up at 5am, but hard to go to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Front Office Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was very cheap, but also dirty. My room was stained with stale cigarette smell, and had burn holes in the sheets as well as strange stains on the chairs, floor and inside the dresser drawers. Also, the TVs do not support HDMI.This hotel is right next to a busy highway and so it was easy to wake up at 5am, but hard to go to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r418244972-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>418244972</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>This was my second time staying at this location and each time I have not been disappointed. The room and the service was excellent. I would stay and recommend this hotel to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my second time staying at this location and each time I have not been disappointed. The room and the service was excellent. I would stay and recommend this hotel to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r417256731-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>417256731</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Not worth the 70$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelled like dirt. Comforter had cigarette burns and the bathroom towels were dingy brown and did not look clean. If I would have found another place I would have left. But alot was booked due to holiday..that will teach me to wait till last minute.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r413696312-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>413696312</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Site looks better than actual</t>
+  </si>
+  <si>
+    <t>Pretty run down looking place upon arrival.  Used a black light to check place out to ensure no cleanliness issues...surprisingly clean.  Bathroom walls needed some help but generally not as bad as we expected.  Dated decor, minor repairs required, missing light bulbs etc.  Will not stay at this location again.  2 star is fair, below average in our bookMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Pretty run down looking place upon arrival.  Used a black light to check place out to ensure no cleanliness issues...surprisingly clean.  Bathroom walls needed some help but generally not as bad as we expected.  Dated decor, minor repairs required, missing light bulbs etc.  Will not stay at this location again.  2 star is fair, below average in our bookMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r405869114-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>405869114</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>First the web site stated pet friendly.  I looked to see if there was a box to check for animals. There was none when I got there I was told it at $10. They charge for the dog the manager mention I was at the bottom of page please put it at the top and number 2 the bathroom floor was filthy the pool had kids under 12 with no adult supervision we have cameras why wasn't this looked at our room was not cleaned we stayed two nights please give me a call I would like to express my displeasure to a person 817-262-0572.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>First the web site stated pet friendly.  I looked to see if there was a box to check for animals. There was none when I got there I was told it at $10. They charge for the dog the manager mention I was at the bottom of page please put it at the top and number 2 the bathroom floor was filthy the pool had kids under 12 with no adult supervision we have cameras why wasn't this looked at our room was not cleaned we stayed two nights please give me a call I would like to express my displeasure to a person 817-262-0572.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r404295804-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>404295804</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Disgusting. Rude Manager as well.</t>
+  </si>
+  <si>
+    <t>Awful experience, booked online and we unknowingly received a smoking room which obviously reeked of smoke. We kindly asked for a non smoking room and were given one, only to find rat poop and a smell of cat pee that was so strong I could smell a hint of it from outside. Immediately went back and asked for a refund and the manager tried to make it seem like it was our fault for asking for a smoking room, which had nothing to do with the fact that his standard KING SIZE room smelled like an animal peed all over it. Not even the regular room, the KING room. Do not go here. You've been warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>Awful experience, booked online and we unknowingly received a smoking room which obviously reeked of smoke. We kindly asked for a non smoking room and were given one, only to find rat poop and a smell of cat pee that was so strong I could smell a hint of it from outside. Immediately went back and asked for a refund and the manager tried to make it seem like it was our fault for asking for a smoking room, which had nothing to do with the fact that his standard KING SIZE room smelled like an animal peed all over it. Not even the regular room, the KING room. Do not go here. You've been warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r397571287-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>397571287</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Overall a good experience.  Property is older therefore not...</t>
+  </si>
+  <si>
+    <t>Overall a good experience.  Property is older therefore not clean in appearance.  Stained chairs and floors. But seemed clean enough. We got what we paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Overall a good experience.  Property is older therefore not clean in appearance.  Stained chairs and floors. But seemed clean enough. We got what we paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r397496089-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>397496089</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>The front desk person was friendly. The room was on first floor. There were dead bugs on carpet. There were live bugs in bathroom. The bed was hard and sheets were washed  but had stains on them. The towels were washed but there were stains and hair on them. The toilet did not look so clean so I had to use disinfective wipes to clean toilet cover. The breakfast was cereal, banana and sweetbread. There were was milk, coffee and juice. There was sign that food and drinks were not to be taken out of dining room area. It felt like we paid alot of money for room that we got. MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk person was friendly. The room was on first floor. There were dead bugs on carpet. There were live bugs in bathroom. The bed was hard and sheets were washed  but had stains on them. The towels were washed but there were stains and hair on them. The toilet did not look so clean so I had to use disinfective wipes to clean toilet cover. The breakfast was cereal, banana and sweetbread. There were was milk, coffee and juice. There was sign that food and drinks were not to be taken out of dining room area. It felt like we paid alot of money for room that we got. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r395661975-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>395661975</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Impressed Me</t>
+  </si>
+  <si>
+    <t>To be honest i was nervous about staying here, just because of how affordable it was.. I figured there would be bugs or it would be ghetto.. Buttttt it was perfectly fine &amp; clean!! We loved our stay, the pool looked clean but we didnt get to enjoy it!! if you wana stay here, do it!! save money &amp; stay in a nice clean roomMoreShow less</t>
+  </si>
+  <si>
+    <t>To be honest i was nervous about staying here, just because of how affordable it was.. I figured there would be bugs or it would be ghetto.. Buttttt it was perfectly fine &amp; clean!! We loved our stay, the pool looked clean but we didnt get to enjoy it!! if you wana stay here, do it!! save money &amp; stay in a nice clean roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r385702701-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>385702701</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Good for price</t>
+  </si>
+  <si>
+    <t>Room was comfortable but bathroom fixtures we not working properly. Bathtub faucet was coming out of the wall. Water pressure was not good. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Room was comfortable but bathroom fixtures we not working properly. Bathtub faucet was coming out of the wall. Water pressure was not good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r385520653-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>385520653</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful! Every time !</t>
+  </si>
+  <si>
+    <t>We love this place!! This is our first, and most of the time, only choice of a place to stay when in this area. Love the rooms and LOVE the people and service! We finally got to enjoy the swimming pool .....also fantastic, and CLEAN!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We love this place!! This is our first, and most of the time, only choice of a place to stay when in this area. Love the rooms and LOVE the people and service! We finally got to enjoy the swimming pool .....also fantastic, and CLEAN!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r384722783-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>384722783</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Too many wyndams are run down.</t>
+  </si>
+  <si>
+    <t>It was pretty much a bed and a tv. I've stayed in much nicer Wynham motels than this one. It's very fun down. It's as if the franchisees don't invest any money into their properties. Wyndham needs to do a few surprise visits at many of their lower tier motels. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>It was pretty much a bed and a tv. I've stayed in much nicer Wynham motels than this one. It's very fun down. It's as if the franchisees don't invest any money into their properties. Wyndham needs to do a few surprise visits at many of their lower tier motels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r375578474-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>375578474</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Great Value for the Money</t>
+  </si>
+  <si>
+    <t>Needed a comfortable, clean hotel room with good shower facility and a quality night sleep. Very much impressed with this hotel. Check-in was fast and simple. Desk clerk very friendly, polite and nice. My room was recently renovated, cleanly painted, fresh with all needed amenities. No noise at night. Did hear person above walking around some, but once I turned the ventilation fan on it drained out the noise. Breakfast was decent with good coffee and bran cereal that I prefer for healthy eating. My only complaint is that the OJ tasted diluted, more liked orange flavored water than quality orange juice.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Needed a comfortable, clean hotel room with good shower facility and a quality night sleep. Very much impressed with this hotel. Check-in was fast and simple. Desk clerk very friendly, polite and nice. My room was recently renovated, cleanly painted, fresh with all needed amenities. No noise at night. Did hear person above walking around some, but once I turned the ventilation fan on it drained out the noise. Breakfast was decent with good coffee and bran cereal that I prefer for healthy eating. My only complaint is that the OJ tasted diluted, more liked orange flavored water than quality orange juice.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r374555340-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>374555340</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>it's a comfortable little motel</t>
+  </si>
+  <si>
+    <t>The lady that checked me was very sweet but also very accommodating. The room was a comfortable little room. It was clean &amp; it didn't smell funny like some other little motel rooms have a tendency to do. They did have a complimentary breakfast in the morning but there wasn't much to it at all. The guy behind the counter in the morning was very rude. He did not greet people coming in &amp; out. He would ignore you when you came up to the desk to ask for anything if he could. Housekeeping was at my room exactly 11 o'clock in the morning standing there with my door wide open practically kicking me out &amp; waiting on me to leaveMoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>The lady that checked me was very sweet but also very accommodating. The room was a comfortable little room. It was clean &amp; it didn't smell funny like some other little motel rooms have a tendency to do. They did have a complimentary breakfast in the morning but there wasn't much to it at all. The guy behind the counter in the morning was very rude. He did not greet people coming in &amp; out. He would ignore you when you came up to the desk to ask for anything if he could. Housekeeping was at my room exactly 11 o'clock in the morning standing there with my door wide open practically kicking me out &amp; waiting on me to leaveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r369396232-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>369396232</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Nice clean nothing fancy. Get what you pay for. Stayed a week. Ok area. No complaints but maybe could use a few updates. Nice and friendly staff. Everything in room worked a bit dusty..allergies acted up. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Nice clean nothing fancy. Get what you pay for. Stayed a week. Ok area. No complaints but maybe could use a few updates. Nice and friendly staff. Everything in room worked a bit dusty..allergies acted up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r363948055-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>363948055</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Nasty room terrible customer service</t>
+  </si>
+  <si>
+    <t>When my party and I check into our room my friend went into the restroom and the toilet seat was very dirty. There was also urine on one of the beds. We called the front desk to get some to clean the restroom. They said they would not sead some one because it was just cleaned. My freind ended up cleaning it himself. They refused to let us speak with a manager or have a manager contact us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>When my party and I check into our room my friend went into the restroom and the toilet seat was very dirty. There was also urine on one of the beds. We called the front desk to get some to clean the restroom. They said they would not sead some one because it was just cleaned. My freind ended up cleaning it himself. They refused to let us speak with a manager or have a manager contact us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r362562055-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>362562055</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>motel a work in progress, we're told</t>
+  </si>
+  <si>
+    <t>staff very kind &amp; helpful. motel mgr says they're updating, which is apparent in some areas. our room carpet was in serious need of cleaning...my new white soled slippers had black soles after being there a wk(wore them max. of 30 min per day). would encourage them to continue updating. handy location for us. beautiful flowers in landscaping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>staff very kind &amp; helpful. motel mgr says they're updating, which is apparent in some areas. our room carpet was in serious need of cleaning...my new white soled slippers had black soles after being there a wk(wore them max. of 30 min per day). would encourage them to continue updating. handy location for us. beautiful flowers in landscaping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r359920572-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>359920572</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Non smoking room wreaked of Smoke</t>
+  </si>
+  <si>
+    <t>The non smoking rom wreaked of cigarette smoke. We asked if we could transfer room, and was told no. Came to find out next morning that desk attended could have moved us to another roomMoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>The non smoking rom wreaked of cigarette smoke. We asked if we could transfer room, and was told no. Came to find out next morning that desk attended could have moved us to another roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r357590539-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>357590539</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>never going back</t>
+  </si>
+  <si>
+    <t>Dirty...floor was sticky and bed sheets were all stained. No hangers in closet. Unprofessional at front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Dirty...floor was sticky and bed sheets were all stained. No hangers in closet. Unprofessional at front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r348205144-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>348205144</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>All'S well that ends well</t>
+  </si>
+  <si>
+    <t>The stay was piecefull and relaxing.I wanted to have a room that I could Park my pick up truck in front of ,which I was able to so Noone would take anything out of the back.Well someone decided they wanted something and took it.The next morning I told the manager about it at first he was sceptable but watched some video and seen it for himself . I thanked him for the stay and he appoligized several times he called 2 hrs later he got my things back"Awsome"MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>The stay was piecefull and relaxing.I wanted to have a room that I could Park my pick up truck in front of ,which I was able to so Noone would take anything out of the back.Well someone decided they wanted something and took it.The next morning I told the manager about it at first he was sceptable but watched some video and seen it for himself . I thanked him for the stay and he appoligized several times he called 2 hrs later he got my things back"Awsome"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r346980696-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>346980696</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>I've stayed here a lot in the past year and I really like the management and staff. Clean comfortable and overall great.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here a lot in the past year and I really like the management and staff. Clean comfortable and overall great.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r339453734-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>339453734</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Tattoo parlor?</t>
+  </si>
+  <si>
+    <t>First room I was given was a smoking room after I asked for non-smoking, the front counter rep. was adamant I was wrong about it being smoking.  I am 99% sure that the smell of smoke in a room and no non-smoking sign on the door like other rooms makes it a smoking room.My next room was right around the corner from a Tattoo Parlor.  That doesn't sound so bad until that tattoo parlor is being run out of one of the rooms.  I don't think I would ever stay at a travel lodge again, this was for business and I would rather pay my own room than stay at a travelodge again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>First room I was given was a smoking room after I asked for non-smoking, the front counter rep. was adamant I was wrong about it being smoking.  I am 99% sure that the smell of smoke in a room and no non-smoking sign on the door like other rooms makes it a smoking room.My next room was right around the corner from a Tattoo Parlor.  That doesn't sound so bad until that tattoo parlor is being run out of one of the rooms.  I don't think I would ever stay at a travel lodge again, this was for business and I would rather pay my own room than stay at a travelodge again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r338462966-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>338462966</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Dallas 1-16</t>
+  </si>
+  <si>
+    <t>Beds were hard as rocks and the pillows were, if possible, even harder. The toilet tried to overflow several times, but the maintenance guy came quickly to fix it. The "white" towels were stained. I suppose they were clean stains. The desk lady wouldn't unlock the door for us to check out. It was 5:59am &amp; she couldn't give us a receipt. Ended giving us a copy of what I signed when we checked in, a breakdown of the charges for our room. Sure looked like a receipt to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beds were hard as rocks and the pillows were, if possible, even harder. The toilet tried to overflow several times, but the maintenance guy came quickly to fix it. The "white" towels were stained. I suppose they were clean stains. The desk lady wouldn't unlock the door for us to check out. It was 5:59am &amp; she couldn't give us a receipt. Ended giving us a copy of what I signed when we checked in, a breakdown of the charges for our room. Sure looked like a receipt to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r337204868-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>337204868</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all cost, unless your standards are very low.</t>
+  </si>
+  <si>
+    <t>The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk....The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk. You can guess the caliber of people that attracts (note: most weekly guest were locals). To my shock, looking into the other rooms as I walked by, I can say we had on of the best rooms. I would have checked out and left that night if it wasn't already 12:30 am and we had to be somewhere at 10 am (regardless of the non-refundable room). Avoid at all cost, unless your standards are very low. If you are going to stay here, pick a room where you can see your car and make sure you don't leave anything in the car you don't mind getting stolen. And don't allow women or small children outside alone at night. Oh yes, and we had trouble getting to the room and found it worked best to just take an exit near the room and drive for a minute so the GPS could get us back on track. I used apple and google maps both (2 phones), but I'm sure that was more to due with us not knowing the area well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk....The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk. You can guess the caliber of people that attracts (note: most weekly guest were locals). To my shock, looking into the other rooms as I walked by, I can say we had on of the best rooms. I would have checked out and left that night if it wasn't already 12:30 am and we had to be somewhere at 10 am (regardless of the non-refundable room). Avoid at all cost, unless your standards are very low. If you are going to stay here, pick a room where you can see your car and make sure you don't leave anything in the car you don't mind getting stolen. And don't allow women or small children outside alone at night. Oh yes, and we had trouble getting to the room and found it worked best to just take an exit near the room and drive for a minute so the GPS could get us back on track. I used apple and google maps both (2 phones), but I'm sure that was more to due with us not knowing the area well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326989086-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>326989086</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326911508-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>326911508</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326686022-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>326686022</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The person that checked me in was extremely helpful and polite.  I was very pleasantly surprised with the room.  It was very clean.  There was plenty of parking, we were able to park right outside the room.  Will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The person that checked me in was extremely helpful and polite.  I was very pleasantly surprised with the room.  It was very clean.  There was plenty of parking, we were able to park right outside the room.  Will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r322134743-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>322134743</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Poo stain on bed sheets</t>
+  </si>
+  <si>
+    <t>I guess you get what you pay for, but I wasn't expecting to be greeted with a fresh poo stain on my sheets!  When I alerted the night staff of this horrifying discovery, they moved me into a new room.  Very nice, only this time, no joke, there were blood stains on the sheets!  These weren't fresh at least, just recycled sheets that they decided were clean enough to keep using over and over again.  Let's just say this will be my last stay at Travelodge NORTH RICHLAND HILLS/DALLAS/FORT WORTH.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>I guess you get what you pay for, but I wasn't expecting to be greeted with a fresh poo stain on my sheets!  When I alerted the night staff of this horrifying discovery, they moved me into a new room.  Very nice, only this time, no joke, there were blood stains on the sheets!  These weren't fresh at least, just recycled sheets that they decided were clean enough to keep using over and over again.  Let's just say this will be my last stay at Travelodge NORTH RICHLAND HILLS/DALLAS/FORT WORTH.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r321022564-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>321022564</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Good People</t>
+  </si>
+  <si>
+    <t>They have been working hard to upgrade their property and have made a considerable change for the better thus far. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>They have been working hard to upgrade their property and have made a considerable change for the better thus far. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r320672596-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>320672596</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Hold on to your wallet..</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to stay here after not being allowed to actually step in the room with the front desk person after asking to see the room but it looked clean enough to stay.  The room was fine but the Indian men working at the front are not to be trusted when it comes to rates..I called before coming over and they gave me different info.  "No discounts" he told me when I asked about a military rate.  All other hotels give us the discount but not these guys.  "It's already included". Okay, no problem.  Stay over the next morning?  "Rates are higher today because of the huge demand and many reservations".  Really?  They are located in a bad area of town off the interstate, looks like long term weekly tenants live here and the breakfast was a joke!  Not bad if  you like bread and sour juice.  Front desk griped about the homeless who come in and try to eat toast in the a.m. repeatedly.  Their customer service is awful..why stay here when the Best Western Plus near here is so nice and the stay is always wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to stay here after not being allowed to actually step in the room with the front desk person after asking to see the room but it looked clean enough to stay.  The room was fine but the Indian men working at the front are not to be trusted when it comes to rates..I called before coming over and they gave me different info.  "No discounts" he told me when I asked about a military rate.  All other hotels give us the discount but not these guys.  "It's already included". Okay, no problem.  Stay over the next morning?  "Rates are higher today because of the huge demand and many reservations".  Really?  They are located in a bad area of town off the interstate, looks like long term weekly tenants live here and the breakfast was a joke!  Not bad if  you like bread and sour juice.  Front desk griped about the homeless who come in and try to eat toast in the a.m. repeatedly.  Their customer service is awful..why stay here when the Best Western Plus near here is so nice and the stay is always wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r315039183-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>315039183</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>hotel stay</t>
+  </si>
+  <si>
+    <t>this hotel was very very dirty linens did not look liked they were changed all stained. Towels were dingy. roaches in roomI will never stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>this hotel was very very dirty linens did not look liked they were changed all stained. Towels were dingy. roaches in roomI will never stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r312517295-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>312517295</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>No TV / No Care</t>
+  </si>
+  <si>
+    <t>While I have stayed here before and all was average and good this time was not good.I arrived at 1am got a room went to bed. The next morning I got up to get ready and turned on the TV to watch the news and there was no reception.  When informed the front desk they indifferent. Thay said i should have told them last night. I they wouldn't discount the already to expensive Walk- IN rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>While I have stayed here before and all was average and good this time was not good.I arrived at 1am got a room went to bed. The next morning I got up to get ready and turned on the TV to watch the news and there was no reception.  When informed the front desk they indifferent. Thay said i should have told them last night. I they wouldn't discount the already to expensive Walk- IN rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r310750784-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>310750784</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>This motel was near my daughters appt. so the location was great.  They did not have an handicapped accessable room so we chose to stay anyway.  Thebathtub was stained very bad, so took shower.  We had plenty of hot water though. Bed was fine, and we had very little contact with front desk, although  they did well when we checked in.  If they fix bathtubs this would be a good moderate choice. (our first room's bathtub was gross so we requested another room and they gave us the other room and it was ok).MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>This motel was near my daughters appt. so the location was great.  They did not have an handicapped accessable room so we chose to stay anyway.  Thebathtub was stained very bad, so took shower.  We had plenty of hot water though. Bed was fine, and we had very little contact with front desk, although  they did well when we checked in.  If they fix bathtubs this would be a good moderate choice. (our first room's bathtub was gross so we requested another room and they gave us the other room and it was ok).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r298106759-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>298106759</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r298041863-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>298041863</t>
+  </si>
+  <si>
+    <t>my time away</t>
+  </si>
+  <si>
+    <t>everyone was friendly and the room was very clean , we had a wonderful time with out any interruptions. we will stay there again.the pool was clean as well   MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>everyone was friendly and the room was very clean , we had a wonderful time with out any interruptions. we will stay there again.the pool was clean as well   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r296462871-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>296462871</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Peacefull</t>
+  </si>
+  <si>
+    <t>I needed a place to relax and think. That is exactly what I got. My room was cool and clean. No noisy or disrespectful tenants. I will stay there again if I need to. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I needed a place to relax and think. That is exactly what I got. My room was cool and clean. No noisy or disrespectful tenants. I will stay there again if I need to. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r295326413-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>295326413</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>UNDER RENOVATION</t>
+  </si>
+  <si>
+    <t>The stay would have been nicer without the previous occupant's hair in random places.  The linens, fixtures, furniture and television are old, but the carpet, paint, toilet, bed, a/c, and tub were fairly new.  The location is perfect for those that want to stay out of the higher priced entertainment areas, and don't mind a 15 - 20 minute drive.  I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay would have been nicer without the previous occupant's hair in random places.  The linens, fixtures, furniture and television are old, but the carpet, paint, toilet, bed, a/c, and tub were fairly new.  The location is perfect for those that want to stay out of the higher priced entertainment areas, and don't mind a 15 - 20 minute drive.  I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r291245813-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>291245813</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Rest.</t>
+  </si>
+  <si>
+    <t>It was very pleasant stay, the rooms are clean, new paint and new carpet. The price is very good for the room.Very nice staff at the front desk.Good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>It was very pleasant stay, the rooms are clean, new paint and new carpet. The price is very good for the room.Very nice staff at the front desk.Good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r288480555-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>288480555</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>the sign said weekly rates $209.00. so i asked and they...</t>
+  </si>
+  <si>
+    <t>the sign said weekly rates $209.00. so i asked and they said there were no more available but maybe in the morning. so i paid $70.00 for one night and they said there don't do discount s. that s false advertising and misleading to get you to spend high prices to their advantage. i am extremely disappointed i. the rates MoreShow less</t>
+  </si>
+  <si>
+    <t>the sign said weekly rates $209.00. so i asked and they said there were no more available but maybe in the morning. so i paid $70.00 for one night and they said there don't do discount s. that s false advertising and misleading to get you to spend high prices to their advantage. i am extremely disappointed i. the rates More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r286279120-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>286279120</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Disgusting And Nasty Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on the 3rd of July and they put me in a room that smelled and she was going to move us next door but it was the same and had no fridge so we stayed in the first room and the pictures posted below tell it all. The room was so nasty and we did not see the blood on the night stand until the next morning. We had to go buy bleach to take a shower, there was pubs all at the top of showe and behind the bathroom door. And there is no excuse for this. I spoke with a manager q guy maybe 40 years old and he could have cared less. I wanted at least 30 percent back but like I said he really could have cared less.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here on the 3rd of July and they put me in a room that smelled and she was going to move us next door but it was the same and had no fridge so we stayed in the first room and the pictures posted below tell it all. The room was so nasty and we did not see the blood on the night stand until the next morning. We had to go buy bleach to take a shower, there was pubs all at the top of showe and behind the bathroom door. And there is no excuse for this. I spoke with a manager q guy maybe 40 years old and he could have cared less. I wanted at least 30 percent back but like I said he really could have cared less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r283990703-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>283990703</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Hotel is older and at the time was undergoing a renovation. Work crews had tools scattered all over making it difficult to access stairs in a couple of places. The front desk staff was friendly and helpful. Rooms were older but clean and the TV channel selection wasn't very good. Would stay here again for work but not with my family. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is older and at the time was undergoing a renovation. Work crews had tools scattered all over making it difficult to access stairs in a couple of places. The front desk staff was friendly and helpful. Rooms were older but clean and the TV channel selection wasn't very good. Would stay here again for work but not with my family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r277956708-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>277956708</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Travelodge Stay</t>
+  </si>
+  <si>
+    <t>My booking with Travelodge was supposed to be for a non-smoking room, but the room I was assigned smelled like smoke. Although the door had a non-smoking sign, the room smelled like smoke and there was an ashtray next to the bed. My biggest problem with this stay was the large amount of construction going on. When making my reservation, there was nothing to notify the consumer that the building was under heavy construction, which woke me up in the morning. As a student in law school, this presents a legal problem to your business because the consumer is not getting the product they believed they were getting in which Travelodge made no effort to notify potential customers. On the bright side, the lady at the check-in counter was nice. Overall, I would rather stay at a different Wyndham Resort going forward.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>My booking with Travelodge was supposed to be for a non-smoking room, but the room I was assigned smelled like smoke. Although the door had a non-smoking sign, the room smelled like smoke and there was an ashtray next to the bed. My biggest problem with this stay was the large amount of construction going on. When making my reservation, there was nothing to notify the consumer that the building was under heavy construction, which woke me up in the morning. As a student in law school, this presents a legal problem to your business because the consumer is not getting the product they believed they were getting in which Travelodge made no effort to notify potential customers. On the bright side, the lady at the check-in counter was nice. Overall, I would rather stay at a different Wyndham Resort going forward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r266093325-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>266093325</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Pictures are deceiving. Pretty Run Down.</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights in April 2015. The Property is in less than average condition. The management were friendly and you could tell were trying to make some improvements but not quite there. I saw no sign of roaches which others have stated, but areas of the property were dilapidated. The room had a very strong paint odor smell and pretty sure the room had been freshly painted as the walls were still a little sticky. The Towels were worn and showed stains. The bed spread had probably been there since the mid 1990's judging by the decor. I have found much better rooms in the area for about the same money. I will say if you stay here, the restaurant 2 doors down Mi Pueblo was AMAZING and affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights in April 2015. The Property is in less than average condition. The management were friendly and you could tell were trying to make some improvements but not quite there. I saw no sign of roaches which others have stated, but areas of the property were dilapidated. The room had a very strong paint odor smell and pretty sure the room had been freshly painted as the walls were still a little sticky. The Towels were worn and showed stains. The bed spread had probably been there since the mid 1990's judging by the decor. I have found much better rooms in the area for about the same money. I will say if you stay here, the restaurant 2 doors down Mi Pueblo was AMAZING and affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r265861670-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>265861670</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Not awful.</t>
+  </si>
+  <si>
+    <t>The outside of the property needs some work (which appears to be happening).  The room was clean and newly painted-- no complaints there.  It was a place to sleep for a cheap price.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>The outside of the property needs some work (which appears to be happening).  The room was clean and newly painted-- no complaints there.  It was a place to sleep for a cheap price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r265127389-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>265127389</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Condescending, arbitrary, uncaring manager</t>
+  </si>
+  <si>
+    <t>Checked into this Travelodge motel at 1am and went directly to sleep. Precisely at 11am--which IS checkout time--the manager called and compelled me to gather my things and vacate the room immediately. Tried explaining to him that my ride would arrive shortly (about 30 minutes later it did) and asked for a little forbearance. All to no avail. His response was rude and condescending...no explanation, no apologies. Please understand that although I am in my early 20s, I am a business person and conduct myself in a professional manner. During this stay I kept to myself; I do not smoke; did not make noise, did not leave the room; did not even turn on the TV. Surely the manager has discretion over these matters, but he chose to be entirely ungracious. I will post a follow-up response to this message once I have talked to the next person in the chain of command.MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Checked into this Travelodge motel at 1am and went directly to sleep. Precisely at 11am--which IS checkout time--the manager called and compelled me to gather my things and vacate the room immediately. Tried explaining to him that my ride would arrive shortly (about 30 minutes later it did) and asked for a little forbearance. All to no avail. His response was rude and condescending...no explanation, no apologies. Please understand that although I am in my early 20s, I am a business person and conduct myself in a professional manner. During this stay I kept to myself; I do not smoke; did not make noise, did not leave the room; did not even turn on the TV. Surely the manager has discretion over these matters, but he chose to be entirely ungracious. I will post a follow-up response to this message once I have talked to the next person in the chain of command.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r251999812-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>251999812</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r251852299-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>251852299</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Needs help</t>
+  </si>
+  <si>
+    <t>Price and location was ok but the place needs some loving and care. The bed sheets had what appeared to be black mold on them. The lounge chair was broken and dirty. The bath room door had peeling paint. The staff was friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, Owner at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded February 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2015</t>
+  </si>
+  <si>
+    <t>Price and location was ok but the place needs some loving and care. The bed sheets had what appeared to be black mold on them. The lounge chair was broken and dirty. The bath room door had peeling paint. The staff was friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r248512660-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>248512660</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>New Year Stay</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff.  Room we stayed in was very nice and comfortable.  Also we got a very good price for your stay during new year. Rooms were very clean, my kids also enjoyed staying in room. Breakfast was good. had juices and hot coffee, 2 type of cereal, oatmeal, what else can you ask for at hotel.  It was good enough for prices we paid to stay here.  over all I would come back and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff.  Room we stayed in was very nice and comfortable.  Also we got a very good price for your stay during new year. Rooms were very clean, my kids also enjoyed staying in room. Breakfast was good. had juices and hot coffee, 2 type of cereal, oatmeal, what else can you ask for at hotel.  It was good enough for prices we paid to stay here.  over all I would come back and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r242324512-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>242324512</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Hospital Stay</t>
+  </si>
+  <si>
+    <t>I had surgery and my husband does not like to stay at the hospital even if he has a rollout so we for the first night then him the next two nights stayed at your Travelodge North Richland Hills/Dallas/Fort Worth.  The room was clean which is important to us and the desk clerk was nice during our check in and check out.  We will stay there again when we travel to the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded December 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2014</t>
+  </si>
+  <si>
+    <t>I had surgery and my husband does not like to stay at the hospital even if he has a rollout so we for the first night then him the next two nights stayed at your Travelodge North Richland Hills/Dallas/Fort Worth.  The room was clean which is important to us and the desk clerk was nice during our check in and check out.  We will stay there again when we travel to the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r242252515-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>242252515</t>
+  </si>
+  <si>
+    <t>Not half bad...</t>
+  </si>
+  <si>
+    <t>We came to visit family. The bed was comfortable. The front desk staff was friendly and hospitable. The room was very out dated. The breakfast was from, at least, last week; stale. The motel was easy to see from the freeway as we approached from the south, but, it was hard to get to with the directions we had; not the motel's fault. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We came to visit family. The bed was comfortable. The front desk staff was friendly and hospitable. The room was very out dated. The breakfast was from, at least, last week; stale. The motel was easy to see from the freeway as we approached from the south, but, it was hard to get to with the directions we had; not the motel's fault. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r233492317-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>233492317</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>ROACHES and BARE PILLOWS</t>
+  </si>
+  <si>
+    <t>If you don't mind killing roaches all night and sleeping on pillows with no protective pillow cases, then you'd might find comfort staying at this hotel!! Among killing the prehistoric pests all night, this hotel makes you feel like your safety is greatly compromised and given the extremely unsanitary conditions, it's a direct confirmation that not a soul who runs this hotel cares about the guests who reside here. Stay away!!! and find yourself Holiday INN Nearby!!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you don't mind killing roaches all night and sleeping on pillows with no protective pillow cases, then you'd might find comfort staying at this hotel!! Among killing the prehistoric pests all night, this hotel makes you feel like your safety is greatly compromised and given the extremely unsanitary conditions, it's a direct confirmation that not a soul who runs this hotel cares about the guests who reside here. Stay away!!! and find yourself Holiday INN Nearby!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r226645236-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>226645236</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Nasty and rude</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family while we relocated to Texas and management is the worst there was never any clean towels the carpet was gross when we checked in the first night our toilet had a hairball in it we never got any hangers for the closet my son spilled some water on the carpet I used a old rag I didn't want to soak it up and it turned completely brown  the sign up to do laundry is every morning starting at 7am I signed up to do laundry and when I went down at my scheduled time I was told it was broken the night before so if it was broken the night before why wasn't I told that when I signed up at 7am the next day so I go check back the next day and the girl had no knowledge of it being broken and supposedly after being broke for 3 days mind you I asked several times a day everyday because I never got to use my scheduled time after it starts working they give the key to someone else  instead of going by the list they already had before the machine was broken they start a new list you can do laundry from 7a to 10p but there is no limit to how long a person can have the key they can literally have the key from 7a to 10p in...I stayed at this hotel with my family while we relocated to Texas and management is the worst there was never any clean towels the carpet was gross when we checked in the first night our toilet had a hairball in it we never got any hangers for the closet my son spilled some water on the carpet I used a old rag I didn't want to soak it up and it turned completely brown  the sign up to do laundry is every morning starting at 7am I signed up to do laundry and when I went down at my scheduled time I was told it was broken the night before so if it was broken the night before why wasn't I told that when I signed up at 7am the next day so I go check back the next day and the girl had no knowledge of it being broken and supposedly after being broke for 3 days mind you I asked several times a day everyday because I never got to use my scheduled time after it starts working they give the key to someone else  instead of going by the list they already had before the machine was broken they start a new list you can do laundry from 7a to 10p but there is no limit to how long a person can have the key they can literally have the key from 7a to 10p in they want housekeeping is a joke when they came that's if they came it was late 2p sometimes after 4p before I left home I called this hotel to check availability I was told they had PLENTY of rooms so no reservation was needed so I don't understand why it was never sn5y towels and what was the problem with house keeping this hotel is VERY poorly managedMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family while we relocated to Texas and management is the worst there was never any clean towels the carpet was gross when we checked in the first night our toilet had a hairball in it we never got any hangers for the closet my son spilled some water on the carpet I used a old rag I didn't want to soak it up and it turned completely brown  the sign up to do laundry is every morning starting at 7am I signed up to do laundry and when I went down at my scheduled time I was told it was broken the night before so if it was broken the night before why wasn't I told that when I signed up at 7am the next day so I go check back the next day and the girl had no knowledge of it being broken and supposedly after being broke for 3 days mind you I asked several times a day everyday because I never got to use my scheduled time after it starts working they give the key to someone else  instead of going by the list they already had before the machine was broken they start a new list you can do laundry from 7a to 10p but there is no limit to how long a person can have the key they can literally have the key from 7a to 10p in...I stayed at this hotel with my family while we relocated to Texas and management is the worst there was never any clean towels the carpet was gross when we checked in the first night our toilet had a hairball in it we never got any hangers for the closet my son spilled some water on the carpet I used a old rag I didn't want to soak it up and it turned completely brown  the sign up to do laundry is every morning starting at 7am I signed up to do laundry and when I went down at my scheduled time I was told it was broken the night before so if it was broken the night before why wasn't I told that when I signed up at 7am the next day so I go check back the next day and the girl had no knowledge of it being broken and supposedly after being broke for 3 days mind you I asked several times a day everyday because I never got to use my scheduled time after it starts working they give the key to someone else  instead of going by the list they already had before the machine was broken they start a new list you can do laundry from 7a to 10p but there is no limit to how long a person can have the key they can literally have the key from 7a to 10p in they want housekeeping is a joke when they came that's if they came it was late 2p sometimes after 4p before I left home I called this hotel to check availability I was told they had PLENTY of rooms so no reservation was needed so I don't understand why it was never sn5y towels and what was the problem with house keeping this hotel is VERY poorly managedMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2997,7603 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>242</v>
+      </c>
+      <c r="X27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>234</v>
+      </c>
+      <c r="X28" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="X34" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>295</v>
+      </c>
+      <c r="X37" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>315</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>295</v>
+      </c>
+      <c r="X39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>328</v>
+      </c>
+      <c r="X40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>331</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
+      </c>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>334</v>
+      </c>
+      <c r="O41" t="s">
+        <v>101</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>328</v>
+      </c>
+      <c r="X41" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>334</v>
+      </c>
+      <c r="O42" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>328</v>
+      </c>
+      <c r="X42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>334</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>346</v>
+      </c>
+      <c r="X43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>350</v>
+      </c>
+      <c r="J44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>353</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>346</v>
+      </c>
+      <c r="X44" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>346</v>
+      </c>
+      <c r="X45" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>360</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>375</v>
+      </c>
+      <c r="X47" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>101</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>375</v>
+      </c>
+      <c r="X48" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
+        <v>101</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>375</v>
+      </c>
+      <c r="X49" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>388</v>
+      </c>
+      <c r="J50" t="s">
+        <v>389</v>
+      </c>
+      <c r="K50" t="s">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s">
+        <v>391</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s">
+        <v>101</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>393</v>
+      </c>
+      <c r="X50" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>392</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>399</v>
+      </c>
+      <c r="X51" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>401</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s">
+        <v>405</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>393</v>
+      </c>
+      <c r="X52" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" t="s">
+        <v>410</v>
+      </c>
+      <c r="K53" t="s">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s">
+        <v>412</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>413</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>422</v>
+      </c>
+      <c r="X54" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>132</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>413</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>428</v>
+      </c>
+      <c r="X55" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>434</v>
+      </c>
+      <c r="X56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>434</v>
+      </c>
+      <c r="X57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>444</v>
+      </c>
+      <c r="J58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s">
+        <v>447</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>449</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>450</v>
+      </c>
+      <c r="J59" t="s">
+        <v>451</v>
+      </c>
+      <c r="K59" t="s">
+        <v>452</v>
+      </c>
+      <c r="L59" t="s">
+        <v>453</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>406</v>
+      </c>
+      <c r="O59" t="s">
+        <v>101</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>454</v>
+      </c>
+      <c r="X59" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>454</v>
+      </c>
+      <c r="X60" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>464</v>
+      </c>
+      <c r="J61" t="s">
+        <v>465</v>
+      </c>
+      <c r="K61" t="s">
+        <v>466</v>
+      </c>
+      <c r="L61" t="s">
+        <v>467</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>406</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>474</v>
+      </c>
+      <c r="X62" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>478</v>
+      </c>
+      <c r="J63" t="s">
+        <v>479</v>
+      </c>
+      <c r="K63" t="s">
+        <v>480</v>
+      </c>
+      <c r="L63" t="s">
+        <v>481</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>482</v>
+      </c>
+      <c r="X63" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>473</v>
+      </c>
+      <c r="O64" t="s">
+        <v>101</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>482</v>
+      </c>
+      <c r="X64" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s">
+        <v>495</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>496</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>497</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>502</v>
+      </c>
+      <c r="L66" t="s">
+        <v>503</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>496</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>497</v>
+      </c>
+      <c r="X66" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>496</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>497</v>
+      </c>
+      <c r="X67" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>512</v>
+      </c>
+      <c r="J68" t="s">
+        <v>513</v>
+      </c>
+      <c r="K68" t="s">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s">
+        <v>515</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>516</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>517</v>
+      </c>
+      <c r="X68" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>522</v>
+      </c>
+      <c r="L69" t="s">
+        <v>523</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>517</v>
+      </c>
+      <c r="X69" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>516</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>530</v>
+      </c>
+      <c r="X70" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>533</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>534</v>
+      </c>
+      <c r="J71" t="s">
+        <v>535</v>
+      </c>
+      <c r="K71" t="s">
+        <v>536</v>
+      </c>
+      <c r="L71" t="s">
+        <v>537</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>538</v>
+      </c>
+      <c r="O71" t="s">
+        <v>101</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>539</v>
+      </c>
+      <c r="X71" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>543</v>
+      </c>
+      <c r="J72" t="s">
+        <v>544</v>
+      </c>
+      <c r="K72" t="s">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s">
+        <v>546</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>101</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>547</v>
+      </c>
+      <c r="X72" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>550</v>
+      </c>
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+      <c r="K73" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s">
+        <v>553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>538</v>
+      </c>
+      <c r="O73" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>554</v>
+      </c>
+      <c r="X73" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>557</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>558</v>
+      </c>
+      <c r="J74" t="s">
+        <v>559</v>
+      </c>
+      <c r="K74" t="s">
+        <v>560</v>
+      </c>
+      <c r="L74" t="s">
+        <v>561</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" t="s">
+        <v>101</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>554</v>
+      </c>
+      <c r="X74" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>565</v>
+      </c>
+      <c r="J75" t="s">
+        <v>566</v>
+      </c>
+      <c r="K75" t="s">
+        <v>567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>568</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>569</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>554</v>
+      </c>
+      <c r="X75" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>571</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>572</v>
+      </c>
+      <c r="J76" t="s">
+        <v>573</v>
+      </c>
+      <c r="K76" t="s">
+        <v>574</v>
+      </c>
+      <c r="L76" t="s">
+        <v>575</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>569</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>576</v>
+      </c>
+      <c r="X76" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>580</v>
+      </c>
+      <c r="J77" t="s">
+        <v>581</v>
+      </c>
+      <c r="K77" t="s">
+        <v>582</v>
+      </c>
+      <c r="L77" t="s">
+        <v>583</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>569</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>584</v>
+      </c>
+      <c r="X77" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>586</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>587</v>
+      </c>
+      <c r="J78" t="s">
+        <v>588</v>
+      </c>
+      <c r="K78" t="s">
+        <v>589</v>
+      </c>
+      <c r="L78" t="s">
+        <v>590</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>591</v>
+      </c>
+      <c r="O78" t="s">
+        <v>101</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>592</v>
+      </c>
+      <c r="X78" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>596</v>
+      </c>
+      <c r="J79" t="s">
+        <v>597</v>
+      </c>
+      <c r="K79" t="s">
+        <v>598</v>
+      </c>
+      <c r="L79" t="s">
+        <v>599</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>591</v>
+      </c>
+      <c r="O79" t="s">
+        <v>69</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>592</v>
+      </c>
+      <c r="X79" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>601</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>602</v>
+      </c>
+      <c r="J80" t="s">
+        <v>603</v>
+      </c>
+      <c r="K80" t="s">
+        <v>604</v>
+      </c>
+      <c r="L80" t="s">
+        <v>605</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>606</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>607</v>
+      </c>
+      <c r="X80" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>611</v>
+      </c>
+      <c r="J81" t="s">
+        <v>612</v>
+      </c>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
+        <v>614</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>606</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>607</v>
+      </c>
+      <c r="X81" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>617</v>
+      </c>
+      <c r="J82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K82" t="s">
+        <v>619</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>621</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>622</v>
+      </c>
+      <c r="X82" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>624</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>625</v>
+      </c>
+      <c r="J83" t="s">
+        <v>626</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>132</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>627</v>
+      </c>
+      <c r="O83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>628</v>
+      </c>
+      <c r="X83" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>630</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>631</v>
+      </c>
+      <c r="J84" t="s">
+        <v>626</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>132</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>627</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>628</v>
+      </c>
+      <c r="X84" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>632</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>633</v>
+      </c>
+      <c r="J85" t="s">
+        <v>634</v>
+      </c>
+      <c r="K85" t="s">
+        <v>635</v>
+      </c>
+      <c r="L85" t="s">
+        <v>636</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>627</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>628</v>
+      </c>
+      <c r="X85" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>638</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>639</v>
+      </c>
+      <c r="J86" t="s">
+        <v>640</v>
+      </c>
+      <c r="K86" t="s">
+        <v>641</v>
+      </c>
+      <c r="L86" t="s">
+        <v>642</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>643</v>
+      </c>
+      <c r="O86" t="s">
+        <v>181</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>644</v>
+      </c>
+      <c r="X86" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>647</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>648</v>
+      </c>
+      <c r="J87" t="s">
+        <v>649</v>
+      </c>
+      <c r="K87" t="s">
+        <v>650</v>
+      </c>
+      <c r="L87" t="s">
+        <v>651</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>643</v>
+      </c>
+      <c r="O87" t="s">
+        <v>69</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>652</v>
+      </c>
+      <c r="X87" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>655</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>656</v>
+      </c>
+      <c r="J88" t="s">
+        <v>657</v>
+      </c>
+      <c r="K88" t="s">
+        <v>658</v>
+      </c>
+      <c r="L88" t="s">
+        <v>659</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>643</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>660</v>
+      </c>
+      <c r="X88" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>662</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>663</v>
+      </c>
+      <c r="J89" t="s">
+        <v>664</v>
+      </c>
+      <c r="K89" t="s">
+        <v>665</v>
+      </c>
+      <c r="L89" t="s">
+        <v>666</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>667</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>668</v>
+      </c>
+      <c r="X89" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>671</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>672</v>
+      </c>
+      <c r="J90" t="s">
+        <v>673</v>
+      </c>
+      <c r="K90" t="s">
+        <v>674</v>
+      </c>
+      <c r="L90" t="s">
+        <v>675</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>667</v>
+      </c>
+      <c r="O90" t="s">
+        <v>69</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>676</v>
+      </c>
+      <c r="X90" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>667</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>684</v>
+      </c>
+      <c r="X91" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>688</v>
+      </c>
+      <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>690</v>
+      </c>
+      <c r="O92" t="s">
+        <v>69</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>691</v>
+      </c>
+      <c r="X92" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>694</v>
+      </c>
+      <c r="J93" t="s">
+        <v>689</v>
+      </c>
+      <c r="K93" t="s">
+        <v>695</v>
+      </c>
+      <c r="L93" t="s">
+        <v>696</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>690</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>697</v>
+      </c>
+      <c r="X93" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>700</v>
+      </c>
+      <c r="J94" t="s">
+        <v>701</v>
+      </c>
+      <c r="K94" t="s">
+        <v>702</v>
+      </c>
+      <c r="L94" t="s">
+        <v>703</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>704</v>
+      </c>
+      <c r="O94" t="s">
+        <v>101</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>697</v>
+      </c>
+      <c r="X94" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>706</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>707</v>
+      </c>
+      <c r="J95" t="s">
+        <v>708</v>
+      </c>
+      <c r="K95" t="s">
+        <v>709</v>
+      </c>
+      <c r="L95" t="s">
+        <v>710</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>704</v>
+      </c>
+      <c r="O95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>691</v>
+      </c>
+      <c r="X95" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>712</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>713</v>
+      </c>
+      <c r="J96" t="s">
+        <v>714</v>
+      </c>
+      <c r="K96" t="s">
+        <v>715</v>
+      </c>
+      <c r="L96" t="s">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>704</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>717</v>
+      </c>
+      <c r="X96" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>720</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>721</v>
+      </c>
+      <c r="J97" t="s">
+        <v>722</v>
+      </c>
+      <c r="K97" t="s">
+        <v>723</v>
+      </c>
+      <c r="L97" t="s">
+        <v>724</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>704</v>
+      </c>
+      <c r="O97" t="s">
+        <v>101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>717</v>
+      </c>
+      <c r="X97" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>726</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>727</v>
+      </c>
+      <c r="J98" t="s">
+        <v>728</v>
+      </c>
+      <c r="K98" t="s">
+        <v>729</v>
+      </c>
+      <c r="L98" t="s">
+        <v>730</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>704</v>
+      </c>
+      <c r="O98" t="s">
+        <v>181</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>731</v>
+      </c>
+      <c r="X98" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>734</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>735</v>
+      </c>
+      <c r="J99" t="s">
+        <v>736</v>
+      </c>
+      <c r="K99" t="s">
+        <v>737</v>
+      </c>
+      <c r="L99" t="s">
+        <v>738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>739</v>
+      </c>
+      <c r="O99" t="s">
+        <v>69</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>740</v>
+      </c>
+      <c r="X99" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>743</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>744</v>
+      </c>
+      <c r="J100" t="s">
+        <v>745</v>
+      </c>
+      <c r="K100" t="s">
+        <v>746</v>
+      </c>
+      <c r="L100" t="s">
+        <v>747</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>748</v>
+      </c>
+      <c r="O100" t="s">
+        <v>69</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>749</v>
+      </c>
+      <c r="X100" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>752</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>753</v>
+      </c>
+      <c r="J101" t="s">
+        <v>754</v>
+      </c>
+      <c r="K101" t="s">
+        <v>755</v>
+      </c>
+      <c r="L101" t="s">
+        <v>756</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>757</v>
+      </c>
+      <c r="O101" t="s">
+        <v>181</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>758</v>
+      </c>
+      <c r="X101" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>761</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>762</v>
+      </c>
+      <c r="J102" t="s">
+        <v>763</v>
+      </c>
+      <c r="K102" t="s">
+        <v>764</v>
+      </c>
+      <c r="L102" t="s">
+        <v>765</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>757</v>
+      </c>
+      <c r="O102" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>766</v>
+      </c>
+      <c r="X102" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>769</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>770</v>
+      </c>
+      <c r="J103" t="s">
+        <v>771</v>
+      </c>
+      <c r="K103" t="s">
+        <v>772</v>
+      </c>
+      <c r="L103" t="s">
+        <v>773</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>757</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>774</v>
+      </c>
+      <c r="X103" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>776</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>777</v>
+      </c>
+      <c r="J104" t="s">
+        <v>778</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s">
+        <v>132</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>779</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>780</v>
+      </c>
+      <c r="X104" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>782</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>783</v>
+      </c>
+      <c r="J105" t="s">
+        <v>784</v>
+      </c>
+      <c r="K105" t="s">
+        <v>785</v>
+      </c>
+      <c r="L105" t="s">
+        <v>786</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>779</v>
+      </c>
+      <c r="O105" t="s">
+        <v>101</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>787</v>
+      </c>
+      <c r="X105" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>790</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>791</v>
+      </c>
+      <c r="J106" t="s">
+        <v>792</v>
+      </c>
+      <c r="K106" t="s">
+        <v>793</v>
+      </c>
+      <c r="L106" t="s">
+        <v>794</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>795</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>796</v>
+      </c>
+      <c r="X106" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>799</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>800</v>
+      </c>
+      <c r="J107" t="s">
+        <v>801</v>
+      </c>
+      <c r="K107" t="s">
+        <v>802</v>
+      </c>
+      <c r="L107" t="s">
+        <v>803</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>804</v>
+      </c>
+      <c r="O107" t="s">
+        <v>69</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>805</v>
+      </c>
+      <c r="X107" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>808</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>809</v>
+      </c>
+      <c r="J108" t="s">
+        <v>801</v>
+      </c>
+      <c r="K108" t="s">
+        <v>810</v>
+      </c>
+      <c r="L108" t="s">
+        <v>811</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>812</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>805</v>
+      </c>
+      <c r="X108" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>814</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>815</v>
+      </c>
+      <c r="J109" t="s">
+        <v>816</v>
+      </c>
+      <c r="K109" t="s">
+        <v>817</v>
+      </c>
+      <c r="L109" t="s">
+        <v>818</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>804</v>
+      </c>
+      <c r="O109" t="s">
+        <v>69</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>805</v>
+      </c>
+      <c r="X109" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5208</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>820</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>821</v>
+      </c>
+      <c r="J110" t="s">
+        <v>822</v>
+      </c>
+      <c r="K110" t="s">
+        <v>823</v>
+      </c>
+      <c r="L110" t="s">
+        <v>824</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>825</v>
+      </c>
+      <c r="O110" t="s">
+        <v>181</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>826</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_767.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_767.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="932">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PeteMichael2018</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Mazzer72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r581270984-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>This was our Dallas motel on our two weeks road trip vacation - and it was pretty good motel option. The rooms were clean with good wifi, TV, Microwave and fridge. Helpful staff - who really care about their guests and the property. Not too much staff within walking distance - but just mile or two away from some good restaurant, shopping mall etc. We went downtown one day and drove to the MTR park and rise - about three miles away - which was breeze. Did all the JFK thing.....More</t>
   </si>
   <si>
+    <t>challb338605</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r580921893-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>The property was convenient to my business location.  The room was clean and updated.  I would have liked to have had a coffee maker in my room but there was coffee in the lobby.  Surrounding property needs to be cleaner.More</t>
   </si>
   <si>
+    <t>TLWoods3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r568005147-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>There was a online booking issue, which I needed to check-in late rather than the next day. I was offered a room at additional rate that I didn’t want to pay, but I agreed to it. The tv didn’t work in the room quickly moved to another room.More</t>
   </si>
   <si>
+    <t>rposani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r565958592-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>I paid for 2 nights, but tried to check out 5 minutes after checking in due to family emergency. Still had to pay for 2 nights at over $100. Will never stay here again!!!!</t>
   </si>
   <si>
+    <t>mgodwi817052</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r561305325-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Never changed my sheets. 5 night stay had additional 10%off and would not apply to stay may have vacuumed 3 times More</t>
   </si>
   <si>
+    <t>lesliehX3225GZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r546290913-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>Don't go to this motel. absolutely everything was bad,even the manager that came on in the morning was rude and not helpful at all.More</t>
   </si>
   <si>
+    <t>kellyga81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r543591977-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Overall it was a good stay! You can tell it's a little dated but it was clean, which is our main concern. Breakfast is just cereal, bread next to toaster, small packaged honey buns &amp; instant oatmeal. Front desk was very nice. Beds &amp; pillows were comfortable &amp; tv worked fine. Bathroom is tiny. There is noise from the road, so if you are a light sleeper, bring earplugs. Our room faced the pool. Even though it's closed, they were cleaning it &amp; doing yard work, so the property was kept up nicely. Had a few rose bushes with big beautiful roses! No coffee maker in room, but they had coffee at front desk. Fridge &amp; microwave in room. Definitely would stay here again!More</t>
   </si>
   <si>
+    <t>cfatka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r541167686-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Older, however clean room. Bed comfortable. Near Interstate, but didn't notice excessive road noise.More</t>
   </si>
   <si>
+    <t>jessicarP1476ER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r537282723-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>Staff friendly easy check in cleans rooms. Only complaints are pillows could have been better and towels also had stains on them.  More</t>
   </si>
   <si>
+    <t>M8152BLannal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r535972447-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>catrenav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r535782052-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>I was extremely happy with my room, it was clean and looked like had newer carpet and bathroom. Next time I am in town I will stay here again..More</t>
   </si>
   <si>
+    <t>joneew2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r532077674-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t>The check-in time is at three but I was given the option to check-in earlier when I was booking. I drove a long way and my event started at 4 p.m. which left my family and I no time to get ready. The room was ok. The breakfast area was filthy and the food was of poor quality.  I would never stay here again. The pictures that are on-line does not reflect the appearance of the property.More</t>
   </si>
   <si>
+    <t>vanessalR6262MA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r531424566-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -483,6 +525,9 @@
     <t>I always enjoy my stay at the Travelodge with my children we always feel very safe the rooms are very clean the staff is very friendly housekeeping is always there and so is maintenance very nice hotelMore</t>
   </si>
   <si>
+    <t>janepX2502AL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r531379164-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -498,6 +543,9 @@
     <t>Welcome was ok but then it went downhillUnable to use laundry after waiting five hoursPillows smelt badBreakfast was really basic and not worth going in for itService by staff was not acceptable at all bad attitudeNot a clean siteMore</t>
   </si>
   <si>
+    <t>chihuangc2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r529272681-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>This is the wrost experience ever, dirty, smell, the sheet has cigar holes, burn marks, how can they rent this kind of room for money and who the heck rate this 5 stars! More</t>
   </si>
   <si>
+    <t>gracep269</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r528698287-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>Poor customer service. Ran out of towels and couldn't replace the two that I was provided once the towels were used. Took them all day just to give me ONE extra pillow. More</t>
   </si>
   <si>
+    <t>Z6885ZMdavidc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r525875449-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t>my stay was not good the sheets had burns in them and the carpet was dirty and the coffee maker looked like it had not been cleaned in years my stay was terrible I will never stay there againMore</t>
   </si>
   <si>
+    <t>russella938</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r517107177-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -597,6 +654,9 @@
     <t>This property was a great stay! The rooms are spacious, clean and homey. The housekeeping and management make sure your stay is a pleasant experience away from home. The bathroom had all brand new fixtures, the air conditioning unit makes it feel heavenly inside the room; drowning out the Texas heat! They provide a flat screen, mini fridge, hairdryer and a microwave! You have the essentials you need without the eye popping price tag.More</t>
   </si>
   <si>
+    <t>I5837IRmarias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r514362772-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -618,6 +678,9 @@
     <t>The kind of  money they charged the rooms should of been better. Don't get fooled by the complimentary breakfast it was lame convenience store snacks. Hope this helps someone who expects more for their money.More</t>
   </si>
   <si>
+    <t>502margueritep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r513005066-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -642,6 +705,9 @@
     <t>The hotel apereamce is great cleanliness A vreat place to stay acessible to major restaurants.More</t>
   </si>
   <si>
+    <t>Marie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r508576739-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
     <t>Very pleasant stay at this location. I would stay there again. Desk manager was very helpful; bed was comfortable; and great location.More</t>
   </si>
   <si>
+    <t>gnomesable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r506192749-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -687,6 +756,9 @@
     <t>While our check in experience was great and the lady at the desk was nice and helpful the rest of the experience lacked.  Our room smelled of cigarette smoke (non smoking room), our towels had dark stains on them and the shower curtain was covered in mold.  The continental breakfast consisted of individually wrapped honey buns in a display case.More</t>
   </si>
   <si>
+    <t>2013bridge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r504934421-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -705,6 +777,9 @@
     <t>Cereal and a box of a danish, that's the "continental" breakfast offered with room, ridiculous.More</t>
   </si>
   <si>
+    <t>melanierB4960ZV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r500711442-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -729,6 +804,9 @@
     <t>My guest had a motorcycle and asked to park it under a covered area becuase there was severe storms and flooring. The attendant and the manager threatened to call the police, have the bike towed, remove us from the property  IN THE MIDDLE OF A STORM. We were not given any options of where the bike could be moved and were told to suck it up and park it in a regular spot. They said they were not concerend for any damage that might occur to the bike. This the most rude, unhelpfull, and frightening experience I have ever had a hotel. I will never return to this property. When I told them I would call and complain to corporate, the manger said go ahead becausr we are independently owned and operated...we have no corporate. Disappointed is not the word!!More</t>
   </si>
   <si>
+    <t>jimandbev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r496544215-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -750,6 +828,9 @@
     <t>The first room we were offered smelled so strongly of perfumed air freshener that it gave us headaches. The second room smelled faintly like cat urine, but we were able to cover it up with a bathroom air freshener.More</t>
   </si>
   <si>
+    <t>Jerry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r495514123-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -768,6 +849,9 @@
     <t>This property always seems maintained. My room was clean, and the bathroom, shower and A/C all worked fine. I do wish, though, that house staff, knowing that I would be checking into the room later that day, had turn the A/C unit on and had the room reasonably cool for me on my arrival. The room was "hot" when I entered. It took a period for the A/C unit to cool the room to the degree level where I was comfortable. I welcome the hotel staff serving raisen bran cereal for those of us who wish to avoid sweets in the mornings or artery clogging foods. Breakfast is sparse as there was no yogurts, no boil eggs, and the orange juice was a little "weak," or more like orange drink. Overall, this is a well run operation, administratively, operationally and management wise, too. I stay here every time I come to North Richland Hills. More</t>
   </si>
   <si>
+    <t>tanayas2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r494391659-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -789,6 +873,9 @@
     <t>I didnt like the appearance of the room. When I arrived the room wasnt clean. And there was blood on the bathroom wall. Wasn't satisfied at all. Thats why I checked out.More</t>
   </si>
   <si>
+    <t>Juanchuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r491042181-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -816,6 +903,9 @@
     <t>Very nice staff and newly remodeled room and property. Good location easy access to freeway. Breakfast could use some improvement. Good English Pub right next door.More</t>
   </si>
   <si>
+    <t>julioo798</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r485483301-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -834,6 +924,9 @@
     <t>Rooms Needs to be upgraded to meet the the value of the price to meet competition out there. But overall it was okay.More</t>
   </si>
   <si>
+    <t>denny63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r482471781-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -858,6 +951,9 @@
     <t>Linens were stained and comforter had mold stains on it. We didn't have hangers in the closet or a iron to press our clothes. The floors were so dirty that after a shower and walking barefoot your feet will be dirty from the carpet! aweful, don't stay here!!! Continental breakfast is 2 kinds of cereal, oatmeal, toast and bananas coffee and juice. Pool is not heated and wasn't open on the day we got there. No smoking in the room but there were people smoking right outside on the balcony and it was coming into our room.More</t>
   </si>
   <si>
+    <t>563justuss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r482420649-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -873,6 +969,9 @@
     <t>I got checked in, and the whole time the front desk woman's kid is screaming at the top of his lungs. I go to my room and the bed wasn't made and there were towels all over the floor. The room hadn't even been cleaned yet. More</t>
   </si>
   <si>
+    <t>427jarrods</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r477728182-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -885,6 +984,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>tonyav585</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r470998106-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1014,9 @@
     <t>They should just shut down. Or plz take them off your site. They don't honor, or care. And its your problem. Grandsons said: best western from know on Mammie... More</t>
   </si>
   <si>
+    <t>T7604PIashleyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r469214945-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1035,9 @@
     <t>Very clean, staff is nice.. my only complaint is something they can't really control, the people up stairs had very heavy feet! Also they do have some construction going on.. when I stayed there they were working on the room next door and they weren't very loud. I'd definitely stay there again!More</t>
   </si>
   <si>
+    <t>Q9488NSkevinm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r466094702-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1056,9 @@
     <t>Room was not particularly clean, paint was peeling off the wall, all the interior lights were those high efficiency but very bright blue lighting kind of hurts the eyes.More</t>
   </si>
   <si>
+    <t>lakrishaf2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r464313748-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1080,9 @@
     <t>The clerk was very friendly and helpful.The rooms are clean and affordable. I will always stay here and let my family see room they liked it also and will be staying very soon.More</t>
   </si>
   <si>
+    <t>angelaaX387RC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r464070931-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1101,9 @@
     <t>The staff at travel Lodge in North Ocean Hills is excellent from the cleaning stuff to the maintenance man to the owners to just the people that work the counter on a daily basis during the day and the evening I've been there both times they're always awesome to me they always treat me like I'm their family and that's very important and that's what keeps me coming back and anything I asked for they are going to make sure I get it thank you so much travel lodge for being so good to me More</t>
   </si>
   <si>
+    <t>grooverman7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r463159310-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1128,9 @@
     <t>it an't&amp;  the Ritz, but quiet, comfortable ,clean , &amp; staff VERY friendly, and helpful , I stay there when i'm In that part of Texas.More</t>
   </si>
   <si>
+    <t>Ellen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r456734573-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1143,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>lesliep728</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r455052356-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1164,9 @@
     <t>We have stayed 6 total nights at this hotel between Oct/16 and Jan17. Each time the room has been very clean, the staff very kind and helpful, and the beds very comfortable. Our dogs loved it as well! The only thing I might like would be enough to towels for 2 people with out having to ask. Other than that..this is a place I like to stay as it is convenient room the entire metroplex of DFW area! More</t>
   </si>
   <si>
+    <t>266marshallr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r454065897-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1191,9 @@
     <t>There was a cigarette burn on the sheet, non smoking room, and the bathroom was not as big as in the picture online.More</t>
   </si>
   <si>
+    <t>feliciaw391</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r450289242-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1212,9 @@
     <t>Travelodge is awesome hotel that has all the essential that you would need. I like it the whole staff is awesome.....More</t>
   </si>
   <si>
+    <t>scottkK8247CY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r448076781-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1236,9 @@
     <t>Friendly and good service from the owner/front desk. Very clean and updated motel.  Glad we booked it here and we will stay here again!  Breakfast just cold cereal, juice, coffee, and fruit.  I really would have loved a waffle maker here, but excellent motel!More</t>
   </si>
   <si>
+    <t>bufa1a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r446969202-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1263,9 @@
     <t>Very friendly, courteous and helpful staff. Competes well with Motel 6 types chains. Very clean rooms but showing their age. Per the management, the entire hotel is being renovated and pictures of renovations will make this a very nice place to stay for the price. Complimentary breakfast very rudimentary with fruit and basic cereal and milk. No waffles or pastries.More</t>
   </si>
   <si>
+    <t>Kathy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r444031972-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1290,9 @@
     <t>Awesome stay &amp; great location. Shopping, restuarants &amp; Nytex Sport Facility. We stay every year.More</t>
   </si>
   <si>
+    <t>williamprice1029</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r443168768-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1302,9 @@
     <t>12/09/2016</t>
   </si>
   <si>
+    <t>Q9605HMkarenp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r442404063-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1365,9 @@
     <t>same as before, home away from home, staff was friendly, cortious, &amp; the hotel was clean &amp; no surprises, More</t>
   </si>
   <si>
+    <t>Sherry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r439322475-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1389,9 @@
     <t>We have stayed here two different times now, the staff has always been nice and helpful, the rooms are clean (it is a older hotel). Also it is located close to where we need to be and they allow dogs.More</t>
   </si>
   <si>
+    <t>978lyndellh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r434434548-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1419,9 @@
     <t>Called front desk for extra pillows and the girl said "housekeeping has already gone home so They will bring them tomorrow." Then there was a $10 charge separate on my bill which was never explained to me. I only knew because of my statement. Breakfast is a joke. Orange juice was watered down. There was only cheap individually wrapped honey buns, white bread, oatmeal and dry cereal as breakfast choicesMore</t>
   </si>
   <si>
+    <t>Brett M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r433648800-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1446,9 @@
     <t>The staff at this location is great, and they really help to create a positive experience.  However, the rooms need some bug spray, and also need to be updated.  I deliberately select Wyndham for the quality and comfort of room and the bed.  The bed was hard and uncomfortable.  It was not comparable to other Wyndham facilities I have stayed at.  The room itself just needs a fresh coat of paint, but the beds have to go.  The floor may have been softer. More</t>
   </si>
   <si>
+    <t>218stacyl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r431868754-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1461,9 @@
     <t>TravelodgeNRH, General Manager at Travelodge North Richland Hills/Dallas/Fort Worth, responded to this reviewResponded November 7, 2016</t>
   </si>
   <si>
+    <t>109genes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r429995239-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1488,9 @@
     <t>Nice place to stay however we only needed to stay for 6 hours during the day and had to pay for the whole night which I do not agree with.More</t>
   </si>
   <si>
+    <t>786tamikak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r428927490-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1527,9 @@
     <t>The Manager and Staff of Travelodge in North Richland Hills is Awesome. He helped me book my stay for my Family. The breakfast is Awesome. The Housekeepers were awesome everything was clean everywhere they need a raise. Thanks I will recommend this Travelodge to others. May God Bless you.More</t>
   </si>
   <si>
+    <t>ryancE1230AB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r418802059-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1554,9 @@
     <t>The hotel was very cheap, but also dirty. My room was stained with stale cigarette smell, and had burn holes in the sheets as well as strange stains on the chairs, floor and inside the dresser drawers. Also, the TVs do not support HDMI.This hotel is right next to a busy highway and so it was easy to wake up at 5am, but hard to go to sleep.More</t>
   </si>
   <si>
+    <t>802charmaneh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r418244972-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1575,9 @@
     <t>This was my second time staying at this location and each time I have not been disappointed. The room and the service was excellent. I would stay and recommend this hotel to family and friends.More</t>
   </si>
   <si>
+    <t>723larisal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r417256731-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1593,9 @@
     <t xml:space="preserve">Smelled like dirt. Comforter had cigarette burns and the bathroom towels were dingy brown and did not look clean. If I would have found another place I would have left. But alot was booked due to holiday..that will teach me to wait till last minute.  </t>
   </si>
   <si>
+    <t>WallyE56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r413696312-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1623,9 @@
     <t>Pretty run down looking place upon arrival.  Used a black light to check place out to ensure no cleanliness issues...surprisingly clean.  Bathroom walls needed some help but generally not as bad as we expected.  Dated decor, minor repairs required, missing light bulbs etc.  Will not stay at this location again.  2 star is fair, below average in our bookMore</t>
   </si>
   <si>
+    <t>lawrenceh560</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r405869114-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +1650,9 @@
     <t>First the web site stated pet friendly.  I looked to see if there was a box to check for animals. There was none when I got there I was told it at $10. They charge for the dog the manager mention I was at the bottom of page please put it at the top and number 2 the bathroom floor was filthy the pool had kids under 12 with no adult supervision we have cameras why wasn't this looked at our room was not cleaned we stayed two nights please give me a call I would like to express my displeasure to a person 817-262-0572.More</t>
   </si>
   <si>
+    <t>Seth F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r404295804-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1671,9 @@
     <t>Awful experience, booked online and we unknowingly received a smoking room which obviously reeked of smoke. We kindly asked for a non smoking room and were given one, only to find rat poop and a smell of cat pee that was so strong I could smell a hint of it from outside. Immediately went back and asked for a refund and the manager tried to make it seem like it was our fault for asking for a smoking room, which had nothing to do with the fact that his standard KING SIZE room smelled like an animal peed all over it. Not even the regular room, the KING room. Do not go here. You've been warned.More</t>
   </si>
   <si>
+    <t>christinaa932</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r397571287-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1701,9 @@
     <t>Overall a good experience.  Property is older therefore not clean in appearance.  Stained chairs and floors. But seemed clean enough. We got what we paid for.More</t>
   </si>
   <si>
+    <t>princesitah2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r397496089-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1719,9 @@
     <t>The front desk person was friendly. The room was on first floor. There were dead bugs on carpet. There were live bugs in bathroom. The bed was hard and sheets were washed  but had stains on them. The towels were washed but there were stains and hair on them. The toilet did not look so clean so I had to use disinfective wipes to clean toilet cover. The breakfast was cereal, banana and sweetbread. There were was milk, coffee and juice. There was sign that food and drinks were not to be taken out of dining room area. It felt like we paid alot of money for room that we got. More</t>
   </si>
   <si>
+    <t>murive12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r395661975-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1740,9 @@
     <t>To be honest i was nervous about staying here, just because of how affordable it was.. I figured there would be bugs or it would be ghetto.. Buttttt it was perfectly fine &amp; clean!! We loved our stay, the pool looked clean but we didnt get to enjoy it!! if you wana stay here, do it!! save money &amp; stay in a nice clean roomMore</t>
   </si>
   <si>
+    <t>A4011QLveronicag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r385702701-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1770,9 @@
     <t>Room was comfortable but bathroom fixtures we not working properly. Bathtub faucet was coming out of the wall. Water pressure was not good. More</t>
   </si>
   <si>
+    <t>Y7941AKmichaelc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r385520653-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1788,9 @@
     <t>We love this place!! This is our first, and most of the time, only choice of a place to stay when in this area. Love the rooms and LOVE the people and service! We finally got to enjoy the swimming pool .....also fantastic, and CLEAN!!More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r384722783-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1842,9 @@
     <t>Needed a comfortable, clean hotel room with good shower facility and a quality night sleep. Very much impressed with this hotel. Check-in was fast and simple. Desk clerk very friendly, polite and nice. My room was recently renovated, cleanly painted, fresh with all needed amenities. No noise at night. Did hear person above walking around some, but once I turned the ventilation fan on it drained out the noise. Breakfast was decent with good coffee and bran cereal that I prefer for healthy eating. My only complaint is that the OJ tasted diluted, more liked orange flavored water than quality orange juice.  More</t>
   </si>
   <si>
+    <t>719brittanyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r374555340-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1866,9 @@
     <t>The lady that checked me was very sweet but also very accommodating. The room was a comfortable little room. It was clean &amp; it didn't smell funny like some other little motel rooms have a tendency to do. They did have a complimentary breakfast in the morning but there wasn't much to it at all. The guy behind the counter in the morning was very rude. He did not greet people coming in &amp; out. He would ignore you when you came up to the desk to ask for anything if he could. Housekeeping was at my room exactly 11 o'clock in the morning standing there with my door wide open practically kicking me out &amp; waiting on me to leaveMore</t>
   </si>
   <si>
+    <t>Gigi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r369396232-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1893,9 @@
     <t>Nice clean nothing fancy. Get what you pay for. Stayed a week. Ok area. No complaints but maybe could use a few updates. Nice and friendly staff. Everything in room worked a bit dusty..allergies acted up. More</t>
   </si>
   <si>
+    <t>gilbertoa416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r363948055-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1917,9 @@
     <t>When my party and I check into our room my friend went into the restroom and the toilet seat was very dirty. There was also urine on one of the beds. We called the front desk to get some to clean the restroom. They said they would not sead some one because it was just cleaned. My freind ended up cleaning it himself. They refused to let us speak with a manager or have a manager contact us.More</t>
   </si>
   <si>
+    <t>Loren M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r362562055-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1731,6 +1941,9 @@
     <t>staff very kind &amp; helpful. motel mgr says they're updating, which is apparent in some areas. our room carpet was in serious need of cleaning...my new white soled slippers had black soles after being there a wk(wore them max. of 30 min per day). would encourage them to continue updating. handy location for us. beautiful flowers in landscaping.  More</t>
   </si>
   <si>
+    <t>g4warn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r359920572-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1968,9 @@
     <t>The non smoking rom wreaked of cigarette smoke. We asked if we could transfer room, and was told no. Came to find out next morning that desk attended could have moved us to another roomMore</t>
   </si>
   <si>
+    <t>410kristenb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r357590539-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1776,6 +1992,9 @@
     <t>Dirty...floor was sticky and bed sheets were all stained. No hangers in closet. Unprofessional at front desk.More</t>
   </si>
   <si>
+    <t>thomasrI7809FL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r348205144-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2022,9 @@
     <t>The stay was piecefull and relaxing.I wanted to have a room that I could Park my pick up truck in front of ,which I was able to so Noone would take anything out of the back.Well someone decided they wanted something and took it.The next morning I told the manager about it at first he was sceptable but watched some video and seen it for himself . I thanked him for the stay and he appoligized several times he called 2 hrs later he got my things back"Awsome"More</t>
   </si>
   <si>
+    <t>lisasA2673NA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r346980696-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2043,9 @@
     <t>I've stayed here a lot in the past year and I really like the management and staff. Clean comfortable and overall great.  More</t>
   </si>
   <si>
+    <t>479joshk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r339453734-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2073,9 @@
     <t>First room I was given was a smoking room after I asked for non-smoking, the front counter rep. was adamant I was wrong about it being smoking.  I am 99% sure that the smell of smoke in a room and no non-smoking sign on the door like other rooms makes it a smoking room.My next room was right around the corner from a Tattoo Parlor.  That doesn't sound so bad until that tattoo parlor is being run out of one of the rooms.  I don't think I would ever stay at a travel lodge again, this was for business and I would rather pay my own room than stay at a travelodge again!!!More</t>
   </si>
   <si>
+    <t>debram146</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r338462966-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1866,6 +2094,9 @@
     <t>Beds were hard as rocks and the pillows were, if possible, even harder. The toilet tried to overflow several times, but the maintenance guy came quickly to fix it. The "white" towels were stained. I suppose they were clean stains. The desk lady wouldn't unlock the door for us to check out. It was 5:59am &amp; she couldn't give us a receipt. Ended giving us a copy of what I signed when we checked in, a breakdown of the charges for our room. Sure looked like a receipt to me.More</t>
   </si>
   <si>
+    <t>mee55555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r337204868-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1890,6 +2121,9 @@
     <t>The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk....The room was not clean. Sheets seemed like they were used (not clean). The odor was so bad it would take your breath away. The room was not a non-smoking and was so bad my sinus were bad for 2 days (and I could not sleep that night). I had a bad headache most of the day due to this room. Note, I am not allergic to smoke in any way and have a fireplace in my home, it was just that bad! the towel I used smelled so badly of smoke that I smelled it on my skin half the day. We asked for extra pillows and towels and were insulted with argumentative aggression. For example, "why do you need any more towels? how many people do you have in the room? let's go to your room right now and get the dirty ones." Yes, he insisted on going into my room to see how many people were staying in there although he said it was to get the old towels (I refused to allow this). I had to use my big boy voice to get the towels (no pillows). The breakfast was so lacking that we went to eat at the mall after checkout. checkout/in was simple but they did require/charge a $100 deposit on my credit card. I did not notice any bugs so that was good. Most people there were staying by the week for $200/wk. You can guess the caliber of people that attracts (note: most weekly guest were locals). To my shock, looking into the other rooms as I walked by, I can say we had on of the best rooms. I would have checked out and left that night if it wasn't already 12:30 am and we had to be somewhere at 10 am (regardless of the non-refundable room). Avoid at all cost, unless your standards are very low. If you are going to stay here, pick a room where you can see your car and make sure you don't leave anything in the car you don't mind getting stolen. And don't allow women or small children outside alone at night. Oh yes, and we had trouble getting to the room and found it worked best to just take an exit near the room and drive for a minute so the GPS could get us back on track. I used apple and google maps both (2 phones), but I'm sure that was more to due with us not knowing the area well.More</t>
   </si>
   <si>
+    <t>txmatn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326989086-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1908,12 +2142,18 @@
     <t>Responded November 21, 2015</t>
   </si>
   <si>
+    <t>imadl355</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326911508-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
     <t>326911508</t>
   </si>
   <si>
+    <t>kconner1218</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r326686022-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2172,9 @@
     <t>The person that checked me in was extremely helpful and polite.  I was very pleasantly surprised with the room.  It was very clean.  There was plenty of parking, we were able to park right outside the room.  Will definitely stay here again!More</t>
   </si>
   <si>
+    <t>jime281</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r322134743-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1959,6 +2202,9 @@
     <t>I guess you get what you pay for, but I wasn't expecting to be greeted with a fresh poo stain on my sheets!  When I alerted the night staff of this horrifying discovery, they moved me into a new room.  Very nice, only this time, no joke, there were blood stains on the sheets!  These weren't fresh at least, just recycled sheets that they decided were clean enough to keep using over and over again.  Let's just say this will be my last stay at Travelodge NORTH RICHLAND HILLS/DALLAS/FORT WORTH.More</t>
   </si>
   <si>
+    <t>H1849PSterrys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r321022564-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1983,6 +2229,9 @@
     <t>They have been working hard to upgrade their property and have made a considerable change for the better thus far. More</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r320672596-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2253,9 @@
     <t>I was a little hesitant to stay here after not being allowed to actually step in the room with the front desk person after asking to see the room but it looked clean enough to stay.  The room was fine but the Indian men working at the front are not to be trusted when it comes to rates..I called before coming over and they gave me different info.  "No discounts" he told me when I asked about a military rate.  All other hotels give us the discount but not these guys.  "It's already included". Okay, no problem.  Stay over the next morning?  "Rates are higher today because of the huge demand and many reservations".  Really?  They are located in a bad area of town off the interstate, looks like long term weekly tenants live here and the breakfast was a joke!  Not bad if  you like bread and sour juice.  Front desk griped about the homeless who come in and try to eat toast in the a.m. repeatedly.  Their customer service is awful..why stay here when the Best Western Plus near here is so nice and the stay is always wonderful.More</t>
   </si>
   <si>
+    <t>natashan452</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r315039183-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2031,6 +2283,9 @@
     <t>this hotel was very very dirty linens did not look liked they were changed all stained. Towels were dingy. roaches in roomI will never stay there again!More</t>
   </si>
   <si>
+    <t>George M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r312517295-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2310,9 @@
     <t>While I have stayed here before and all was average and good this time was not good.I arrived at 1am got a room went to bed. The next morning I got up to get ready and turned on the TV to watch the news and there was no reception.  When informed the front desk they indifferent. Thay said i should have told them last night. I they wouldn't discount the already to expensive Walk- IN rate.More</t>
   </si>
   <si>
+    <t>Nova B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r310750784-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2079,6 +2337,9 @@
     <t>This motel was near my daughters appt. so the location was great.  They did not have an handicapped accessable room so we chose to stay anyway.  Thebathtub was stained very bad, so took shower.  We had plenty of hot water though. Bed was fine, and we had very little contact with front desk, although  they did well when we checked in.  If they fix bathtubs this would be a good moderate choice. (our first room's bathtub was gross so we requested another room and they gave us the other room and it was ok).More</t>
   </si>
   <si>
+    <t>6400pshahahd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r298106759-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2358,9 @@
     <t>Responded August 12, 2015</t>
   </si>
   <si>
+    <t>840verat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r298041863-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2379,9 @@
     <t>everyone was friendly and the room was very clean , we had a wonderful time with out any interruptions. we will stay there again.the pool was clean as well   More</t>
   </si>
   <si>
+    <t>U2692QUsusana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r296462871-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2136,6 +2403,9 @@
     <t>I needed a place to relax and think. That is exactly what I got. My room was cool and clean. No noisy or disrespectful tenants. I will stay there again if I need to. Thank you.More</t>
   </si>
   <si>
+    <t>Z8679EQdavidt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r295326413-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2154,6 +2424,9 @@
     <t>The stay would have been nicer without the previous occupant's hair in random places.  The linens, fixtures, furniture and television are old, but the carpet, paint, toilet, bed, a/c, and tub were fairly new.  The location is perfect for those that want to stay out of the higher priced entertainment areas, and don't mind a 15 - 20 minute drive.  I would stay here again. More</t>
   </si>
   <si>
+    <t>luisgV6708IP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r291245813-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2178,6 +2451,9 @@
     <t>It was very pleasant stay, the rooms are clean, new paint and new carpet. The price is very good for the room.Very nice staff at the front desk.Good hotel.More</t>
   </si>
   <si>
+    <t>sherlenep2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r288480555-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2196,6 +2472,9 @@
     <t>the sign said weekly rates $209.00. so i asked and they said there were no more available but maybe in the morning. so i paid $70.00 for one night and they said there don't do discount s. that s false advertising and misleading to get you to spend high prices to their advantage. i am extremely disappointed i. the rates More</t>
   </si>
   <si>
+    <t>Jennifer A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r286279120-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2220,6 +2499,9 @@
     <t>We stayed here on the 3rd of July and they put me in a room that smelled and she was going to move us next door but it was the same and had no fridge so we stayed in the first room and the pictures posted below tell it all. The room was so nasty and we did not see the blood on the night stand until the next morning. We had to go buy bleach to take a shower, there was pubs all at the top of showe and behind the bathroom door. And there is no excuse for this. I spoke with a manager q guy maybe 40 years old and he could have cared less. I wanted at least 30 percent back but like I said he really could have cared less.More</t>
   </si>
   <si>
+    <t>bobbyb577</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r283990703-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2247,6 +2529,9 @@
     <t>Hotel is older and at the time was undergoing a renovation. Work crews had tools scattered all over making it difficult to access stairs in a couple of places. The front desk staff was friendly and helpful. Rooms were older but clean and the TV channel selection wasn't very good. Would stay here again for work but not with my family. More</t>
   </si>
   <si>
+    <t>H3092WXwilliamr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r277956708-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2559,9 @@
     <t>My booking with Travelodge was supposed to be for a non-smoking room, but the room I was assigned smelled like smoke. Although the door had a non-smoking sign, the room smelled like smoke and there was an ashtray next to the bed. My biggest problem with this stay was the large amount of construction going on. When making my reservation, there was nothing to notify the consumer that the building was under heavy construction, which woke me up in the morning. As a student in law school, this presents a legal problem to your business because the consumer is not getting the product they believed they were getting in which Travelodge made no effort to notify potential customers. On the bright side, the lady at the check-in counter was nice. Overall, I would rather stay at a different Wyndham Resort going forward.More</t>
   </si>
   <si>
+    <t>JasonF440</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r266093325-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2301,6 +2589,9 @@
     <t>We stayed here 2 nights in April 2015. The Property is in less than average condition. The management were friendly and you could tell were trying to make some improvements but not quite there. I saw no sign of roaches which others have stated, but areas of the property were dilapidated. The room had a very strong paint odor smell and pretty sure the room had been freshly painted as the walls were still a little sticky. The Towels were worn and showed stains. The bed spread had probably been there since the mid 1990's judging by the decor. I have found much better rooms in the area for about the same money. I will say if you stay here, the restaurant 2 doors down Mi Pueblo was AMAZING and affordable.More</t>
   </si>
   <si>
+    <t>Brandon F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r265861670-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2325,6 +2616,9 @@
     <t>The outside of the property needs some work (which appears to be happening).  The room was clean and newly painted-- no complaints there.  It was a place to sleep for a cheap price.More</t>
   </si>
   <si>
+    <t>R C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r265127389-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2346,6 +2640,9 @@
     <t>Checked into this Travelodge motel at 1am and went directly to sleep. Precisely at 11am--which IS checkout time--the manager called and compelled me to gather my things and vacate the room immediately. Tried explaining to him that my ride would arrive shortly (about 30 minutes later it did) and asked for a little forbearance. All to no avail. His response was rude and condescending...no explanation, no apologies. Please understand that although I am in my early 20s, I am a business person and conduct myself in a professional manner. During this stay I kept to myself; I do not smoke; did not make noise, did not leave the room; did not even turn on the TV. Surely the manager has discretion over these matters, but he chose to be entirely ungracious. I will post a follow-up response to this message once I have talked to the next person in the chain of command.More</t>
   </si>
   <si>
+    <t>212christiw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r251999812-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2364,6 +2661,9 @@
     <t>Responded February 4, 2015</t>
   </si>
   <si>
+    <t>edwardtal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r251852299-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2388,6 +2688,9 @@
     <t>Price and location was ok but the place needs some loving and care. The bed sheets had what appeared to be black mold on them. The lounge chair was broken and dirty. The bath room door had peeling paint. The staff was friendly. More</t>
   </si>
   <si>
+    <t>Bhavu P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r248512660-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2415,6 +2718,9 @@
     <t>Friendly front desk staff.  Room we stayed in was very nice and comfortable.  Also we got a very good price for your stay during new year. Rooms were very clean, my kids also enjoyed staying in room. Breakfast was good. had juices and hot coffee, 2 type of cereal, oatmeal, what else can you ask for at hotel.  It was good enough for prices we paid to stay here.  over all I would come back and stay here again.More</t>
   </si>
   <si>
+    <t>Cheryl P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r242324512-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2442,6 +2748,9 @@
     <t>I had surgery and my husband does not like to stay at the hospital even if he has a rollout so we for the first night then him the next two nights stayed at your Travelodge North Richland Hills/Dallas/Fort Worth.  The room was clean which is important to us and the desk clerk was nice during our check in and check out.  We will stay there again when we travel to the area. More</t>
   </si>
   <si>
+    <t>Jeff S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r242252515-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2460,6 +2769,9 @@
     <t>We came to visit family. The bed was comfortable. The front desk staff was friendly and hospitable. The room was very out dated. The breakfast was from, at least, last week; stale. The motel was easy to see from the freeway as we approached from the south, but, it was hard to get to with the directions we had; not the motel's fault. More</t>
   </si>
   <si>
+    <t>Christina A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r233492317-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -2476,6 +2788,9 @@
   </si>
   <si>
     <t>If you don't mind killing roaches all night and sleeping on pillows with no protective pillow cases, then you'd might find comfort staying at this hotel!! Among killing the prehistoric pests all night, this hotel makes you feel like your safety is greatly compromised and given the extremely unsanitary conditions, it's a direct confirmation that not a soul who runs this hotel cares about the guests who reside here. Stay away!!! and find yourself Holiday INN Nearby!!More</t>
+  </si>
+  <si>
+    <t>Takisha W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d109099-r226645236-Travelodge_North_Richland_Hills_Dallas_Fort_Worth-North_Richland_Hills_Texas.html</t>
@@ -3001,43 +3316,47 @@
       <c r="A2" t="n">
         <v>5208</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3059,50 +3378,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5208</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3120,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5208</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3191,56 +3518,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5208</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -3262,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5208</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>180321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -3335,50 +3670,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5208</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -3400,56 +3739,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5208</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3471,56 +3814,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5208</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>180324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3536,56 +3883,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5208</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3607,56 +3958,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5208</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>180326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3678,54 +4033,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5208</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3747,56 +4106,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5208</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3818,56 +4181,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5208</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3889,56 +4256,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5208</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3960,56 +4331,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5208</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>180331</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -4031,56 +4406,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5208</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180332</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -4102,56 +4481,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5208</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>180333</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -4173,56 +4556,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5208</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -4244,56 +4631,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5208</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>180335</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4315,56 +4706,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5208</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180336</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4386,56 +4781,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5208</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>180337</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4457,56 +4856,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5208</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>598</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4528,56 +4931,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5208</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180338</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -4599,56 +5006,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5208</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -4670,56 +5081,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5208</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4741,56 +5156,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5208</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>180341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4812,56 +5231,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5208</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>28352</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4883,56 +5306,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5208</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>180342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4954,56 +5381,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5208</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180343</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -5025,56 +5456,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5208</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180344</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -5096,56 +5531,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5208</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>180345</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -5163,56 +5602,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="X32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5208</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180346</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5234,54 +5677,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5208</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>180347</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5303,56 +5750,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="X34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5208</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>180348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>322</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -5374,56 +5825,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5208</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>180349</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5445,56 +5900,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5208</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180350</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -5516,56 +5975,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5208</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>180351</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5587,56 +6050,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X38" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5208</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180352</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5658,56 +6125,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X39" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5208</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180353</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5729,54 +6200,58 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5208</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5798,56 +6273,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5208</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>180354</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5869,56 +6348,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X42" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5208</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>180355</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5940,56 +6423,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="X43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5208</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180356</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -6011,56 +6498,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="X44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="Y44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5208</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>180357</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -6082,56 +6573,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="X45" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5208</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>180358</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6153,56 +6648,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="X46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="Y46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5208</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C47" t="s">
+        <v>415</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="J47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="L47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6224,54 +6723,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="X47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5208</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>180359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6293,56 +6796,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="X48" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5208</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>180360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>428</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="J49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -6364,56 +6871,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="X49" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Y49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5208</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>28352</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6429,56 +6940,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="X50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5208</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>180352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>361</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6498,56 +7013,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="X51" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5208</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>41306</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6565,56 +7084,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="X52" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="Y52" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5208</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>457</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6636,56 +7159,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="X53" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5208</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>24460</v>
+      </c>
+      <c r="C54" t="s">
+        <v>467</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="J54" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="K54" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6707,54 +7234,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X54" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y54" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5208</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>180362</v>
+      </c>
+      <c r="C55" t="s">
+        <v>476</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6776,56 +7307,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="X55" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="Y55" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5208</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180363</v>
+      </c>
+      <c r="C56" t="s">
+        <v>481</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6847,56 +7382,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="X56" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5208</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>490</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6918,56 +7457,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="Y57" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5208</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>180355</v>
+      </c>
+      <c r="C58" t="s">
+        <v>391</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6989,56 +7532,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="Y58" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5208</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>180365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>503</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="J59" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="L59" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O59" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -7060,56 +7607,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="X59" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Y59" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5208</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>180366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>512</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -7131,56 +7682,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="X60" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Y60" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5208</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>180367</v>
+      </c>
+      <c r="C61" t="s">
+        <v>519</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="J61" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="L61" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -7202,50 +7757,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5208</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180368</v>
+      </c>
+      <c r="C62" t="s">
+        <v>525</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -7267,56 +7826,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="X62" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="Y62" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5208</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>180369</v>
+      </c>
+      <c r="C63" t="s">
+        <v>535</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="J63" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="K63" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -7338,56 +7901,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="X63" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5208</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>180370</v>
+      </c>
+      <c r="C64" t="s">
+        <v>544</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="K64" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="L64" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="O64" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7399,56 +7966,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="X64" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="Y64" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>5208</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>180371</v>
+      </c>
+      <c r="C65" t="s">
+        <v>551</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="J65" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="K65" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="L65" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="O65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -7470,56 +8041,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="X65" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>5208</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>180372</v>
+      </c>
+      <c r="C66" t="s">
+        <v>561</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="J66" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="K66" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="L66" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -7541,56 +8116,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="X66" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="Y66" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>5208</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>180373</v>
+      </c>
+      <c r="C67" t="s">
+        <v>567</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="J67" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="K67" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="L67" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7612,56 +8191,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="X67" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="Y67" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>5208</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>108070</v>
+      </c>
+      <c r="C68" t="s">
+        <v>574</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="J68" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="L68" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7683,56 +8266,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="X68" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="Y68" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>5208</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>180374</v>
+      </c>
+      <c r="C69" t="s">
+        <v>584</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="K69" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="L69" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7754,56 +8341,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="X69" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="Y69" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>5208</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>507</v>
+      </c>
+      <c r="C70" t="s">
+        <v>590</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="O70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7825,56 +8416,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="X70" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="Y70" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>5208</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>28352</v>
+      </c>
+      <c r="C71" t="s">
+        <v>270</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="J71" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="K71" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="L71" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="O71" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7896,56 +8491,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="X71" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="Y71" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>5208</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>179404</v>
+      </c>
+      <c r="C72" t="s">
+        <v>608</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="J72" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="K72" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="O72" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7967,56 +8566,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="X72" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="Y72" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>5208</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>180375</v>
+      </c>
+      <c r="C73" t="s">
+        <v>616</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="J73" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="K73" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="L73" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="O73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -8028,56 +8631,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="X73" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="Y73" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>5208</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>180376</v>
+      </c>
+      <c r="C74" t="s">
+        <v>625</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="J74" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="K74" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="L74" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="O74" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -8099,56 +8706,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="X74" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="Y74" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>5208</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>94570</v>
+      </c>
+      <c r="C75" t="s">
+        <v>633</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="J75" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="K75" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="L75" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -8170,56 +8781,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="X75" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="Y75" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>5208</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>180377</v>
+      </c>
+      <c r="C76" t="s">
+        <v>641</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="J76" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="L76" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -8239,56 +8854,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="X76" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="Y76" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>5208</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>180378</v>
+      </c>
+      <c r="C77" t="s">
+        <v>650</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="J77" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="K77" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="L77" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -8310,56 +8929,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="X77" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="Y77" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>5208</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>180379</v>
+      </c>
+      <c r="C78" t="s">
+        <v>658</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="J78" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="K78" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="L78" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="O78" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -8381,56 +9004,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="X78" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="Y78" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>5208</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>180380</v>
+      </c>
+      <c r="C79" t="s">
+        <v>668</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="J79" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="K79" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="O79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8452,56 +9079,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="X79" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="Y79" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>5208</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>180381</v>
+      </c>
+      <c r="C80" t="s">
+        <v>675</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="J80" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="K80" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="L80" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="O80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8523,56 +9154,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="X80" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="Y80" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>5208</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>180382</v>
+      </c>
+      <c r="C81" t="s">
+        <v>685</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="J81" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="K81" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -8594,56 +9229,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="X81" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="Y81" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>5208</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>180383</v>
+      </c>
+      <c r="C82" t="s">
+        <v>692</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -8661,54 +9300,58 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="X82" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="Y82" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>5208</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>180384</v>
+      </c>
+      <c r="C83" t="s">
+        <v>701</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="J83" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O83" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8730,54 +9373,58 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="X83" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="Y83" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>5208</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>180385</v>
+      </c>
+      <c r="C84" t="s">
+        <v>708</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="J84" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -8799,56 +9446,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="X84" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="Y84" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>5208</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>180386</v>
+      </c>
+      <c r="C85" t="s">
+        <v>711</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="J85" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="K85" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="L85" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8860,56 +9511,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="X85" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="Y85" t="s">
-        <v>637</v>
+        <v>717</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>5208</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>180387</v>
+      </c>
+      <c r="C86" t="s">
+        <v>718</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="J86" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="K86" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="L86" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="O86" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8931,56 +9586,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="X86" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="Y86" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>5208</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>180388</v>
+      </c>
+      <c r="C87" t="s">
+        <v>728</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="J87" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="K87" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="L87" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="O87" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -9002,56 +9661,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="X87" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="Y87" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>5208</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C88" t="s">
+        <v>737</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>655</v>
+        <v>738</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="J88" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="K88" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="L88" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -9069,56 +9732,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="X88" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="Y88" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>5208</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>180389</v>
+      </c>
+      <c r="C89" t="s">
+        <v>745</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>662</v>
+        <v>746</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>663</v>
+        <v>747</v>
       </c>
       <c r="J89" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="K89" t="s">
-        <v>665</v>
+        <v>749</v>
       </c>
       <c r="L89" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -9140,56 +9807,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="X89" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="Y89" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>5208</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>8690</v>
+      </c>
+      <c r="C90" t="s">
+        <v>755</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>671</v>
+        <v>756</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="J90" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="K90" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="L90" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="O90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -9211,56 +9882,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="X90" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="Y90" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>5208</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>180390</v>
+      </c>
+      <c r="C91" t="s">
+        <v>764</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>679</v>
+        <v>765</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
       <c r="J91" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="K91" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="L91" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -9282,54 +9957,58 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="X91" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="Y91" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>5208</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>180391</v>
+      </c>
+      <c r="C92" t="s">
+        <v>773</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="J92" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="O92" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -9351,56 +10030,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="X92" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="Y92" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>5208</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>180392</v>
+      </c>
+      <c r="C93" t="s">
+        <v>780</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>693</v>
+        <v>781</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>694</v>
+        <v>782</v>
       </c>
       <c r="J93" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="K93" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="L93" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9422,56 +10105,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="X93" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="Y93" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>5208</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>180393</v>
+      </c>
+      <c r="C94" t="s">
+        <v>787</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="J94" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="K94" t="s">
-        <v>702</v>
+        <v>791</v>
       </c>
       <c r="L94" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="O94" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9493,56 +10180,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="X94" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="Y94" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>5208</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>180394</v>
+      </c>
+      <c r="C95" t="s">
+        <v>795</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="J95" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="K95" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="L95" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="O95" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9564,56 +10255,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="X95" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="Y95" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>5208</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>180395</v>
+      </c>
+      <c r="C96" t="s">
+        <v>802</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="J96" t="s">
-        <v>714</v>
+        <v>805</v>
       </c>
       <c r="K96" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="L96" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="O96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9635,56 +10330,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>717</v>
+        <v>808</v>
       </c>
       <c r="X96" t="s">
-        <v>718</v>
+        <v>809</v>
       </c>
       <c r="Y96" t="s">
-        <v>719</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>5208</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>180396</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
       <c r="J97" t="s">
-        <v>722</v>
+        <v>814</v>
       </c>
       <c r="K97" t="s">
-        <v>723</v>
+        <v>815</v>
       </c>
       <c r="L97" t="s">
-        <v>724</v>
+        <v>816</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="O97" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -9706,56 +10405,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>717</v>
+        <v>808</v>
       </c>
       <c r="X97" t="s">
-        <v>718</v>
+        <v>809</v>
       </c>
       <c r="Y97" t="s">
-        <v>725</v>
+        <v>817</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>5208</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C98" t="s">
+        <v>818</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>726</v>
+        <v>819</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>727</v>
+        <v>820</v>
       </c>
       <c r="J98" t="s">
-        <v>728</v>
+        <v>821</v>
       </c>
       <c r="K98" t="s">
-        <v>729</v>
+        <v>822</v>
       </c>
       <c r="L98" t="s">
-        <v>730</v>
+        <v>823</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="O98" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9767,56 +10470,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>731</v>
+        <v>824</v>
       </c>
       <c r="X98" t="s">
-        <v>732</v>
+        <v>825</v>
       </c>
       <c r="Y98" t="s">
-        <v>733</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>5208</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>180397</v>
+      </c>
+      <c r="C99" t="s">
+        <v>827</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>734</v>
+        <v>828</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>735</v>
+        <v>829</v>
       </c>
       <c r="J99" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
       <c r="K99" t="s">
-        <v>737</v>
+        <v>831</v>
       </c>
       <c r="L99" t="s">
-        <v>738</v>
+        <v>832</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>739</v>
+        <v>833</v>
       </c>
       <c r="O99" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9838,56 +10545,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>740</v>
+        <v>834</v>
       </c>
       <c r="X99" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="Y99" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>5208</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>180398</v>
+      </c>
+      <c r="C100" t="s">
+        <v>837</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>743</v>
+        <v>838</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>744</v>
+        <v>839</v>
       </c>
       <c r="J100" t="s">
-        <v>745</v>
+        <v>840</v>
       </c>
       <c r="K100" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="L100" t="s">
-        <v>747</v>
+        <v>842</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="O100" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9909,56 +10620,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="X100" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="Y100" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>5208</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>180399</v>
+      </c>
+      <c r="C101" t="s">
+        <v>847</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>752</v>
+        <v>848</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>753</v>
+        <v>849</v>
       </c>
       <c r="J101" t="s">
-        <v>754</v>
+        <v>850</v>
       </c>
       <c r="K101" t="s">
-        <v>755</v>
+        <v>851</v>
       </c>
       <c r="L101" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="O101" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="n">
@@ -9976,56 +10691,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>758</v>
+        <v>854</v>
       </c>
       <c r="X101" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="Y101" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>5208</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>26754</v>
+      </c>
+      <c r="C102" t="s">
+        <v>857</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>762</v>
+        <v>859</v>
       </c>
       <c r="J102" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="K102" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="L102" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="O102" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -10047,56 +10766,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="X102" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
       <c r="Y102" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>5208</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>9592</v>
+      </c>
+      <c r="C103" t="s">
+        <v>866</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="J103" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="K103" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="L103" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -10114,54 +10837,58 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="X103" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="Y103" t="s">
-        <v>775</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>5208</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>180400</v>
+      </c>
+      <c r="C104" t="s">
+        <v>874</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="J104" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -10183,56 +10910,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>780</v>
+        <v>879</v>
       </c>
       <c r="X104" t="s">
-        <v>781</v>
+        <v>880</v>
       </c>
       <c r="Y104" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>5208</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>180401</v>
+      </c>
+      <c r="C105" t="s">
+        <v>881</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="J105" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="K105" t="s">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="L105" t="s">
-        <v>786</v>
+        <v>886</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="O105" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -10254,56 +10985,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>787</v>
+        <v>887</v>
       </c>
       <c r="X105" t="s">
-        <v>788</v>
+        <v>888</v>
       </c>
       <c r="Y105" t="s">
-        <v>789</v>
+        <v>889</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>5208</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>180402</v>
+      </c>
+      <c r="C106" t="s">
+        <v>890</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>791</v>
+        <v>892</v>
       </c>
       <c r="J106" t="s">
-        <v>792</v>
+        <v>893</v>
       </c>
       <c r="K106" t="s">
-        <v>793</v>
+        <v>894</v>
       </c>
       <c r="L106" t="s">
-        <v>794</v>
+        <v>895</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>795</v>
+        <v>896</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10319,56 +11054,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>796</v>
+        <v>897</v>
       </c>
       <c r="X106" t="s">
-        <v>797</v>
+        <v>898</v>
       </c>
       <c r="Y106" t="s">
-        <v>798</v>
+        <v>899</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>5208</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>36832</v>
+      </c>
+      <c r="C107" t="s">
+        <v>900</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>799</v>
+        <v>901</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>800</v>
+        <v>902</v>
       </c>
       <c r="J107" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="K107" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
       <c r="L107" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
       <c r="O107" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10390,56 +11129,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="X107" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="Y107" t="s">
-        <v>807</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>5208</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>4598</v>
+      </c>
+      <c r="C108" t="s">
+        <v>910</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>809</v>
+        <v>912</v>
       </c>
       <c r="J108" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="K108" t="s">
-        <v>810</v>
+        <v>913</v>
       </c>
       <c r="L108" t="s">
-        <v>811</v>
+        <v>914</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -10461,56 +11204,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="X108" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="Y108" t="s">
-        <v>813</v>
+        <v>916</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>5208</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>85678</v>
+      </c>
+      <c r="C109" t="s">
+        <v>917</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c r="J109" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="K109" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="L109" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
       <c r="O109" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="n">
@@ -10528,56 +11275,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="X109" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="Y109" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>5208</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>180403</v>
+      </c>
+      <c r="C110" t="s">
+        <v>924</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>820</v>
+        <v>925</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>821</v>
+        <v>926</v>
       </c>
       <c r="J110" t="s">
-        <v>822</v>
+        <v>927</v>
       </c>
       <c r="K110" t="s">
-        <v>823</v>
+        <v>928</v>
       </c>
       <c r="L110" t="s">
-        <v>824</v>
+        <v>929</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>825</v>
+        <v>930</v>
       </c>
       <c r="O110" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P110" t="s"/>
       <c r="Q110" t="s"/>
@@ -10591,7 +11342,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>826</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
